--- a/calibrations/210917_Calibrations_mammals_72sp.xlsx
+++ b/calibrations/210917_Calibrations_mammals_72sp.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Synched_Dropbox\Dropbox\PhD_backup\02_Mammals\000_MAMMALS_GITHUB_DIR\mammals_dating\calibrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238EF2F7-83E8-455E-A2FF-D32D9F3C1CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CD2763-A3C2-4B26-92FD-D99FBB2339D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17025" xr2:uid="{F5F90D7F-8969-4CB4-B4E2-8CC3DB74F797}"/>
   </bookViews>
   <sheets>
-    <sheet name="5000s_200123" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="calibrations" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1384,7 +1383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="586">
   <si>
     <t>ARTIODACTYLA</t>
   </si>
@@ -1660,237 +1659,6 @@
     <t>B(0.11608,0.281)</t>
   </si>
   <si>
-    <t>t_n73</t>
-  </si>
-  <si>
-    <t>t_n74</t>
-  </si>
-  <si>
-    <t>t_n75</t>
-  </si>
-  <si>
-    <t>t_n76</t>
-  </si>
-  <si>
-    <t>t_n77</t>
-  </si>
-  <si>
-    <t>t_n78</t>
-  </si>
-  <si>
-    <t>t_n79</t>
-  </si>
-  <si>
-    <t>t_n80</t>
-  </si>
-  <si>
-    <t>t_n81</t>
-  </si>
-  <si>
-    <t>t_n82</t>
-  </si>
-  <si>
-    <t>t_n83</t>
-  </si>
-  <si>
-    <t>t_n84</t>
-  </si>
-  <si>
-    <t>t_n85</t>
-  </si>
-  <si>
-    <t>t_n86</t>
-  </si>
-  <si>
-    <t>t_n87</t>
-  </si>
-  <si>
-    <t>t_n88</t>
-  </si>
-  <si>
-    <t>t_n89</t>
-  </si>
-  <si>
-    <t>t_n90</t>
-  </si>
-  <si>
-    <t>t_n91</t>
-  </si>
-  <si>
-    <t>t_n92</t>
-  </si>
-  <si>
-    <t>t_n93</t>
-  </si>
-  <si>
-    <t>t_n94</t>
-  </si>
-  <si>
-    <t>t_n95</t>
-  </si>
-  <si>
-    <t>t_n96</t>
-  </si>
-  <si>
-    <t>t_n97</t>
-  </si>
-  <si>
-    <t>t_n98</t>
-  </si>
-  <si>
-    <t>t_n99</t>
-  </si>
-  <si>
-    <t>t_n100</t>
-  </si>
-  <si>
-    <t>t_n101</t>
-  </si>
-  <si>
-    <t>t_n102</t>
-  </si>
-  <si>
-    <t>t_n103</t>
-  </si>
-  <si>
-    <t>t_n104</t>
-  </si>
-  <si>
-    <t>t_n105</t>
-  </si>
-  <si>
-    <t>t_n106</t>
-  </si>
-  <si>
-    <t>t_n107</t>
-  </si>
-  <si>
-    <t>t_n108</t>
-  </si>
-  <si>
-    <t>t_n109</t>
-  </si>
-  <si>
-    <t>t_n110</t>
-  </si>
-  <si>
-    <t>t_n111</t>
-  </si>
-  <si>
-    <t>t_n112</t>
-  </si>
-  <si>
-    <t>t_n113</t>
-  </si>
-  <si>
-    <t>t_n114</t>
-  </si>
-  <si>
-    <t>t_n115</t>
-  </si>
-  <si>
-    <t>t_n116</t>
-  </si>
-  <si>
-    <t>t_n117</t>
-  </si>
-  <si>
-    <t>t_n118</t>
-  </si>
-  <si>
-    <t>t_n119</t>
-  </si>
-  <si>
-    <t>t_n120</t>
-  </si>
-  <si>
-    <t>t_n121</t>
-  </si>
-  <si>
-    <t>t_n122</t>
-  </si>
-  <si>
-    <t>t_n123</t>
-  </si>
-  <si>
-    <t>t_n124</t>
-  </si>
-  <si>
-    <t>t_n125</t>
-  </si>
-  <si>
-    <t>t_n126</t>
-  </si>
-  <si>
-    <t>t_n127</t>
-  </si>
-  <si>
-    <t>t_n128</t>
-  </si>
-  <si>
-    <t>t_n129</t>
-  </si>
-  <si>
-    <t>t_n130</t>
-  </si>
-  <si>
-    <t>t_n131</t>
-  </si>
-  <si>
-    <t>t_n132</t>
-  </si>
-  <si>
-    <t>t_n133</t>
-  </si>
-  <si>
-    <t>t_n134</t>
-  </si>
-  <si>
-    <t>t_n135</t>
-  </si>
-  <si>
-    <t>t_n136</t>
-  </si>
-  <si>
-    <t>t_n137</t>
-  </si>
-  <si>
-    <t>t_n138</t>
-  </si>
-  <si>
-    <t>t_n139</t>
-  </si>
-  <si>
-    <t>t_n140</t>
-  </si>
-  <si>
-    <t>t_n141</t>
-  </si>
-  <si>
-    <t>t_n142</t>
-  </si>
-  <si>
-    <t>t_n143</t>
-  </si>
-  <si>
-    <t>xi-location</t>
-  </si>
-  <si>
-    <t>omega-scale</t>
-  </si>
-  <si>
-    <t>alpha-shape</t>
-  </si>
-  <si>
-    <t>nu-df</t>
-  </si>
-  <si>
-    <t>MCMCtree-calib</t>
-  </si>
-  <si>
-    <t>MCMCtree-calib-rounded</t>
-  </si>
-  <si>
     <t>Calibrations used in the 72sp tree</t>
   </si>
   <si>
@@ -2077,9 +1845,6 @@
     <t>B(0.537,0.616)</t>
   </si>
   <si>
-    <t>Prinodon-Felidae</t>
-  </si>
-  <si>
     <t>HerEupHya</t>
   </si>
   <si>
@@ -2257,15 +2022,9 @@
     <t>ST(0.148207575124072,0.0211505854360463,0.417019565153955,367.218417804426)</t>
   </si>
   <si>
-    <t>ST(0.148,0.021,0.417,367.218)</t>
-  </si>
-  <si>
     <t>ST(0.069910913508589,0.0151802475160969,1.11980626604696,331.497236407018)</t>
   </si>
   <si>
-    <t>ST(0.07,0.015,1.12,331.497)</t>
-  </si>
-  <si>
     <t>ST(0.467154730498875,0.0312211434177465,-1.96566843523129,117.01193504961)</t>
   </si>
   <si>
@@ -2281,9 +2040,6 @@
     <t>ST(0.6600394282419,0.00520616835873881,0.340880796069342,4.20698198166621)</t>
   </si>
   <si>
-    <t>ST(0.66,0.005,0.341,4.207)</t>
-  </si>
-  <si>
     <t>ST(0.577131214585592,0.00701522745408484,-0.63388025418015,7.50858664890298)</t>
   </si>
   <si>
@@ -2305,15 +2061,9 @@
     <t>ST(0.16170125373343,0.0311120061766834,5.86301508375978,624.148265147333)</t>
   </si>
   <si>
-    <t>ST(0.162,0.031,5.863,624.148)</t>
-  </si>
-  <si>
     <t>ST(0.0685897138789814,0.0171657871152621,3.22470507989002,169.671643098715)</t>
   </si>
   <si>
-    <t>ST(0.069,0.017,3.225,169.672)</t>
-  </si>
-  <si>
     <t>ST(0.694522263625083,0.00703784739084366,0.319536189703347,7.61865839547998)</t>
   </si>
   <si>
@@ -2413,9 +2163,6 @@
     <t>ST(0.0880313592009061,0.0217334118926484,3.75637567973021,209.065446508871)</t>
   </si>
   <si>
-    <t>ST(0.088,0.022,3.756,209.065)</t>
-  </si>
-  <si>
     <t>ST(0.127931800200064,0.0288162936996598,3.53190875011012,404.416467698753)</t>
   </si>
   <si>
@@ -2443,9 +2190,6 @@
     <t>ST(0.010390224682799,0.00329608313530482,3.38023999082774,83.5293275067873)</t>
   </si>
   <si>
-    <t>ST(0.01,0.003,3.38,83.529)</t>
-  </si>
-  <si>
     <t>ST(0.654554357477005,0.0101454587560829,-1.35520089896373,178.3160813526)</t>
   </si>
   <si>
@@ -2479,9 +2223,6 @@
     <t>ST(0.199609668204201,0.026612083005834,-1.85639941127359,48.1351758781562)</t>
   </si>
   <si>
-    <t>ST(0.2,0.027,-1.856,48.135)</t>
-  </si>
-  <si>
     <t>ST(0.191865940696162,0.0257941970465323,-1.83027689862001,49.9599990708336)</t>
   </si>
   <si>
@@ -2491,9 +2232,6 @@
     <t>ST(0.175355620112384,0.0237213811088084,-1.72176715991031,40.5053037832292)</t>
   </si>
   <si>
-    <t>ST(0.175,0.024,-1.722,40.505)</t>
-  </si>
-  <si>
     <t>ST(0.314169125603677,0.0184973072916638,-1.22995166525076,314.094760953336)</t>
   </si>
   <si>
@@ -2506,15 +2244,9 @@
     <t>ST(0.182,0.012,-0.054,88.157)</t>
   </si>
   <si>
-    <t>-1.15937349386954e-07</t>
-  </si>
-  <si>
     <t>ST(0.136282409202039,0.00925477542916154,-1.15937349386954e-07,10.0000008830228)</t>
   </si>
   <si>
-    <t>ST(0.136,0.009,0,10)</t>
-  </si>
-  <si>
     <t>ST(0.0998840396877581,0.00918425772741137,0.640913659304393,145.41355448313)</t>
   </si>
   <si>
@@ -2554,9 +2286,6 @@
     <t>ST(0.036259180489395,0.00607979017730428,1.52487180817649,104.387930283732)</t>
   </si>
   <si>
-    <t>ST(0.036,0.006,1.525,104.388)</t>
-  </si>
-  <si>
     <t>ST(0.235831895412964,0.0158427700124193,-1.22280477837033,135.248266371408)</t>
   </si>
   <si>
@@ -4023,6 +3752,1364 @@
     </r>
   </si>
   <si>
+    <t>STREPSIRRHINI</t>
+  </si>
+  <si>
+    <r>
+      <t>B(0.3485,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.56</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>PILOSA</t>
+  </si>
+  <si>
+    <t>FOLIVORA</t>
+  </si>
+  <si>
+    <t>VERMILINGUA</t>
+  </si>
+  <si>
+    <r>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.339</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.56</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1599</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0.56)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chrysochloris asiatica</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - OTHER CHRYSOCHLORIDS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2304</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0.56)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0533</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2304</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.4103</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6609</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>MACROPODOIDEA (Macropodidae + Potoroidae)</t>
+  </si>
+  <si>
+    <r>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2045</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.377</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.38</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0.66)</t>
+    </r>
+  </si>
+  <si>
+    <t>SUINA</t>
+  </si>
+  <si>
+    <t>WHIPPOMORPHA</t>
+  </si>
+  <si>
+    <t>CETACEA</t>
+  </si>
+  <si>
+    <r>
+      <t>B(0.3613,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.56</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>MYSTICETI</t>
+  </si>
+  <si>
+    <t>L(0.1599)</t>
+  </si>
+  <si>
+    <t>ODONTOCETI</t>
+  </si>
+  <si>
+    <t>L(0.2304)</t>
+  </si>
+  <si>
+    <t>DELPHINIDA</t>
+  </si>
+  <si>
+    <t>PHOCOENIDAE-MONODONTIDAE</t>
+  </si>
+  <si>
+    <t>HIPPOPOTAMIDAE</t>
+  </si>
+  <si>
+    <t>L(0.076)</t>
+  </si>
+  <si>
+    <t>GIRAFFIDAE</t>
+  </si>
+  <si>
+    <t>L(0.14)</t>
+  </si>
+  <si>
+    <t>BOVINI</t>
+  </si>
+  <si>
+    <t>L(0.0549)</t>
+  </si>
+  <si>
+    <t>TRAGELAPHINI</t>
+  </si>
+  <si>
+    <t>L(0.05111)</t>
+  </si>
+  <si>
+    <t>REDUNCINI</t>
+  </si>
+  <si>
+    <t>HIPPOTRAGINI-ALCELAPHINI</t>
+  </si>
+  <si>
+    <t>L(0.0648)</t>
+  </si>
+  <si>
+    <t>ALCELAPHINI</t>
+  </si>
+  <si>
+    <t>CAPRINAE</t>
+  </si>
+  <si>
+    <t>L(0.089)</t>
+  </si>
+  <si>
+    <t>CERVIDAE</t>
+  </si>
+  <si>
+    <t>STEM-MOSCHIDAE</t>
+  </si>
+  <si>
+    <t>L(0.195)</t>
+  </si>
+  <si>
+    <t>NEOBALAENINAE</t>
+  </si>
+  <si>
+    <r>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2304</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0.339)</t>
+    </r>
+  </si>
+  <si>
+    <t>BALAENOPTERIDAE</t>
+  </si>
+  <si>
+    <t>L(0.073)</t>
+  </si>
+  <si>
+    <t>PHYSETEROIDEA</t>
+  </si>
+  <si>
+    <t>L(0.1382)</t>
+  </si>
+  <si>
+    <t>PERISSODACTYLA</t>
+  </si>
+  <si>
+    <r>
+      <t>B(0.555</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0.6609</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>CERATOMORPHA</t>
+  </si>
+  <si>
+    <r>
+      <t>B(0.281,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6609</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>HERPESTIDAE-EUPLERIDAE</t>
+  </si>
+  <si>
+    <r>
+      <t>B(0.1597,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.339</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>MUSTELIDAE-PROCYONIDAE</t>
+  </si>
+  <si>
+    <t>L(0.2642)</t>
+  </si>
+  <si>
+    <t>VIVERRINAE-GENETTINAE</t>
+  </si>
+  <si>
+    <t>LOBODONTINI</t>
+  </si>
+  <si>
+    <t>PHOCIDAE</t>
+  </si>
+  <si>
+    <t>OTARIOIDEA</t>
+  </si>
+  <si>
+    <t>PINNIPEDIA</t>
+  </si>
+  <si>
+    <t>HIPPOSIDERIDAE-RHINOLOPHIDAE</t>
+  </si>
+  <si>
+    <t>MEGADERMATIDAE-CRASEONYCTERIDAE</t>
+  </si>
+  <si>
+    <t>MOLOSSIDAE - VESPERTILIONIDAE + MINIOPTERIDAE</t>
+  </si>
+  <si>
+    <t>NATALIDAE - VESPERTILIONIDAE + MINIOPTERIDAE + MOLOSSIDAE</t>
+  </si>
+  <si>
+    <t>SCIUROMORPHA</t>
+  </si>
+  <si>
+    <t>ABROCOMIDAE</t>
+  </si>
+  <si>
+    <r>
+      <t>B(0.01778,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1382</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>MONOTREMATA</t>
+  </si>
+  <si>
+    <t>TACHYGLOSSIDAE</t>
+  </si>
+  <si>
+    <t>Updated prior calibrations (September 2021) - BOTH FOR 72SP AND SUBTREES</t>
+  </si>
+  <si>
+    <t>ST(0.062,0.013,1.120,331.497)</t>
+  </si>
+  <si>
+    <t>Prionodon-Felidae</t>
+  </si>
+  <si>
+    <t>PRIONODONTIDAE-FELIDAE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1597</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.255</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.247</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.25</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.347</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.554</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.524</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0774</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.3746</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.102</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.48078</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6609</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.19535</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.36</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1382</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2044</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1597</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2044</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2045</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2729</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>B(0.0533,</t>
     </r>
@@ -4030,7 +5117,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="5" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4048,808 +5135,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.0533</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0.339)</t>
-    </r>
-  </si>
-  <si>
-    <t>STREPSIRRHINI</t>
-  </si>
-  <si>
-    <r>
-      <t>B(0.3485,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.56</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>PILOSA</t>
-  </si>
-  <si>
-    <t>FOLIVORA</t>
-  </si>
-  <si>
-    <t>VERMILINGUA</t>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.339</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.56</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.1599</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0.56)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chrysochloris asiatica</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - OTHER CHRYSOCHLORIDS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.2304</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0.56)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.0533</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.2304</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.4103</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6609</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>L(0.255)</t>
-  </si>
-  <si>
-    <t>L(0.25)</t>
-  </si>
-  <si>
-    <t>MACROPODOIDEA (Macropodidae + Potoroidae)</t>
-  </si>
-  <si>
-    <t>L(0.247)</t>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.2045</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.377</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.38</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0.66)</t>
-    </r>
-  </si>
-  <si>
-    <t>SUINA</t>
-  </si>
-  <si>
-    <t>WHIPPOMORPHA</t>
-  </si>
-  <si>
-    <t>L(0.524)</t>
-  </si>
-  <si>
-    <t>CETACEA</t>
-  </si>
-  <si>
-    <r>
-      <t>B(0.3613,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.56</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>MYSTICETI</t>
-  </si>
-  <si>
-    <t>L(0.1599)</t>
-  </si>
-  <si>
-    <t>ODONTOCETI</t>
-  </si>
-  <si>
-    <t>L(0.2304)</t>
-  </si>
-  <si>
-    <t>DELPHINIDA</t>
-  </si>
-  <si>
-    <t>PHOCOENIDAE-MONODONTIDAE</t>
-  </si>
-  <si>
-    <t>HIPPOPOTAMIDAE</t>
-  </si>
-  <si>
-    <t>L(0.076)</t>
-  </si>
-  <si>
-    <t>L(0.0774)</t>
-  </si>
-  <si>
-    <t>GIRAFFIDAE</t>
-  </si>
-  <si>
-    <t>L(0.14)</t>
-  </si>
-  <si>
-    <t>BOVINI</t>
-  </si>
-  <si>
-    <t>L(0.102)</t>
-  </si>
-  <si>
-    <t>L(0.0549)</t>
-  </si>
-  <si>
-    <t>TRAGELAPHINI</t>
-  </si>
-  <si>
-    <t>L(0.05111)</t>
-  </si>
-  <si>
-    <t>REDUNCINI</t>
-  </si>
-  <si>
-    <t>HIPPOTRAGINI-ALCELAPHINI</t>
-  </si>
-  <si>
-    <t>L(0.0648)</t>
-  </si>
-  <si>
-    <t>ALCELAPHINI</t>
-  </si>
-  <si>
-    <t>CAPRINAE</t>
-  </si>
-  <si>
-    <t>L(0.089)</t>
-  </si>
-  <si>
-    <t>CERVIDAE</t>
-  </si>
-  <si>
-    <t>STEM-MOSCHIDAE</t>
-  </si>
-  <si>
-    <t>L(0.195)</t>
-  </si>
-  <si>
-    <t>NEOBALAENINAE</t>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.2304</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0.339)</t>
-    </r>
-  </si>
-  <si>
-    <t>BALAENOPTERIDAE</t>
-  </si>
-  <si>
-    <t>L(0.073)</t>
-  </si>
-  <si>
-    <t>PHYSETEROIDEA</t>
-  </si>
-  <si>
-    <t>L(0.1382)</t>
-  </si>
-  <si>
-    <t>PERISSODACTYLA</t>
-  </si>
-  <si>
-    <r>
-      <t>B(0.555</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0.6609</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>CERATOMORPHA</t>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.48078</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6609</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>PRINODONTIDAE-FELIDAE</t>
-  </si>
-  <si>
-    <r>
-      <t>B(0.281,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6609</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>HERPESTIDAE-EUPLERIDAE</t>
-  </si>
-  <si>
-    <r>
-      <t>B(0.1597,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.339</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>MUSTELIDAE-PROCYONIDAE</t>
-  </si>
-  <si>
-    <t>L(0.2642)</t>
-  </si>
-  <si>
-    <t>L(0.19535)</t>
-  </si>
-  <si>
-    <t>VIVERRINAE-GENETTINAE</t>
-  </si>
-  <si>
-    <t>LOBODONTINI</t>
-  </si>
-  <si>
-    <t>PHOCIDAE</t>
-  </si>
-  <si>
-    <t>OTARIOIDEA</t>
-  </si>
-  <si>
-    <t>PINNIPEDIA</t>
-  </si>
-  <si>
-    <r>
-      <t>B(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.2045</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.2729</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>HIPPOSIDERIDAE-RHINOLOPHIDAE</t>
-  </si>
-  <si>
-    <t>MEGADERMATIDAE-CRASEONYCTERIDAE</t>
-  </si>
-  <si>
-    <t>MOLOSSIDAE - VESPERTILIONIDAE + MINIOPTERIDAE</t>
-  </si>
-  <si>
-    <t>NATALIDAE - VESPERTILIONIDAE + MINIOPTERIDAE + MOLOSSIDAE</t>
-  </si>
-  <si>
-    <t>SCIUROMORPHA</t>
-  </si>
-  <si>
-    <t>ABROCOMIDAE</t>
-  </si>
-  <si>
-    <r>
-      <t>B(0.01778,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.1382</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>MONOTREMATA</t>
-  </si>
-  <si>
-    <t>TACHYGLOSSIDAE</t>
-  </si>
-  <si>
-    <t>Updated prior calibrations (September 2021) - BOTH FOR 72SP AND SUBTREES</t>
-  </si>
-  <si>
-    <t>ST(0.062,0.013,1.120,331.497)</t>
   </si>
 </sst>
 </file>
@@ -5035,12 +5320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -5051,6 +5330,14 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5196,7 +5483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -5371,8 +5658,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6158,8 +6447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA58086-C186-4A4F-AE49-F68A7B9A237B}">
   <dimension ref="A1:AQ136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA19" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD46" sqref="AD46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6198,97 +6487,97 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="19" t="s">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="D1" s="117" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>670</v>
+        <v>568</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K1" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>346</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="S1" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="W1" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="X1" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="Y1" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="Z1" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="P1" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="R1" s="20" t="s">
+      <c r="AA1" s="88" t="s">
         <v>444</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="AB1" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="AC1" s="88" t="s">
         <v>446</v>
       </c>
-      <c r="U1" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA1" s="88" t="s">
-        <v>534</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="AC1" s="88" t="s">
-        <v>536</v>
-      </c>
       <c r="AD1" s="20" t="s">
-        <v>448</v>
+        <v>358</v>
       </c>
       <c r="AE1" s="89" t="s">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="AF1" s="20" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="AG1" s="90" t="s">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="AH1" s="40"/>
       <c r="AI1" s="21" t="s">
@@ -6298,17 +6587,17 @@
         <v>58</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="AN1" s="57"/>
       <c r="AO1" s="23" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AP1" s="23" t="s">
         <v>48</v>
@@ -6325,7 +6614,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="F2" s="5">
         <v>73</v>
@@ -6337,89 +6626,89 @@
         <v>34</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="J2" s="12">
         <v>61</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="L2" s="70">
         <v>308</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="N2" s="49">
         <v>487</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="P2" s="97">
         <v>89</v>
       </c>
       <c r="Q2" s="97" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="R2" s="45">
         <v>432</v>
       </c>
       <c r="S2" s="106" t="s">
-        <v>519</v>
+        <v>429</v>
       </c>
       <c r="T2" s="52">
         <v>660</v>
       </c>
       <c r="U2" s="52" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="V2" s="100">
         <v>257</v>
       </c>
       <c r="W2" s="83" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="X2" s="100">
         <v>635</v>
       </c>
       <c r="Y2" s="83" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="Z2" s="87">
         <v>631</v>
       </c>
       <c r="AA2" s="86" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="AB2" s="87">
         <v>692</v>
       </c>
       <c r="AC2" s="86" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="AD2" s="85">
         <v>268</v>
       </c>
       <c r="AE2" s="85" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="AF2" s="56">
         <v>211</v>
       </c>
       <c r="AG2" s="56" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="AH2" s="41"/>
       <c r="AO2" s="112" t="s">
-        <v>539</v>
+        <v>449</v>
       </c>
       <c r="AP2" s="112" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="AQ2" s="112" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6433,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="F3" s="36">
         <v>74</v>
@@ -6474,21 +6763,21 @@
       <c r="AL3" s="31"/>
       <c r="AM3" s="31"/>
       <c r="AO3" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="AP3" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="15" t="s">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="D4" s="118" t="s">
-        <v>432</v>
+        <v>342</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="F4" s="38">
         <v>75</v>
@@ -6504,7 +6793,7 @@
         <v>310</v>
       </c>
       <c r="M4" s="70" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="N4" s="38"/>
       <c r="O4" s="38"/>
@@ -6534,10 +6823,10 @@
       <c r="AM4" s="37"/>
       <c r="AN4" s="58"/>
       <c r="AO4" s="70" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="AP4" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6545,12 +6834,12 @@
         <v>66</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>432</v>
+        <v>342</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="53"/>
       <c r="F5" s="73" t="s">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
@@ -6599,13 +6888,13 @@
         <v>67</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="F6" s="36">
         <v>76</v>
@@ -6621,7 +6910,7 @@
         <v>312</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
@@ -6652,10 +6941,10 @@
       <c r="AL6" s="31"/>
       <c r="AM6" s="31"/>
       <c r="AO6" s="70" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="AP6" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6666,7 +6955,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="F7" s="35">
         <v>77</v>
@@ -6700,18 +6989,18 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="41"/>
       <c r="AO7" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="AP7" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="46" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="53"/>
@@ -6752,10 +7041,10 @@
       <c r="AL8" s="31"/>
       <c r="AM8" s="31"/>
       <c r="AO8" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="AP8" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6766,7 +7055,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="F9" s="35">
         <v>79</v>
@@ -6778,7 +7067,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -6815,15 +7104,15 @@
       <c r="AL9" s="31"/>
       <c r="AM9" s="31"/>
       <c r="AO9" s="7" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="AP9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="34" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>20</v>
@@ -6832,7 +7121,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="F10" s="35">
         <v>80</v>
@@ -6846,7 +7135,7 @@
         <v>62</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="35"/>
@@ -6879,15 +7168,15 @@
       <c r="AL10" s="31"/>
       <c r="AM10" s="31"/>
       <c r="AO10" s="29" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="AP10" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="50" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>1</v>
@@ -6896,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="F11" s="35">
         <v>81</v>
@@ -6910,7 +7199,7 @@
         <v>110</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="35"/>
@@ -6935,7 +7224,7 @@
       <c r="AF11" s="36"/>
       <c r="AG11" s="36"/>
       <c r="AH11" s="42" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="AI11" s="67" t="s">
         <v>27</v>
@@ -6945,18 +7234,18 @@
       <c r="AL11" s="31"/>
       <c r="AM11" s="31"/>
       <c r="AO11" s="29" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="AP11" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="83" t="s">
-        <v>433</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="53"/>
@@ -6989,15 +7278,15 @@
       <c r="AG12" s="35"/>
       <c r="AH12" s="41"/>
       <c r="AO12" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="AP12" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="51" t="s">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="53"/>
@@ -7018,7 +7307,7 @@
         <v>661</v>
       </c>
       <c r="U13" s="52" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="V13" s="36"/>
       <c r="W13" s="36"/>
@@ -7034,24 +7323,24 @@
       <c r="AG13" s="35"/>
       <c r="AH13" s="41"/>
       <c r="AO13" s="52" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="AP13" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="56" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="F14" s="35">
         <v>84</v>
@@ -7072,7 +7361,7 @@
         <v>1005</v>
       </c>
       <c r="U14" s="52" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="V14" s="36"/>
       <c r="W14" s="36"/>
@@ -7088,18 +7377,18 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="41"/>
       <c r="AO14" s="52" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="AP14" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="85" t="s">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="53"/>
@@ -7123,7 +7412,7 @@
         <v>662</v>
       </c>
       <c r="U15" s="52" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="V15" s="36"/>
       <c r="W15" s="36"/>
@@ -7145,15 +7434,15 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="44"/>
       <c r="AO15" s="52" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="AP15" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="86" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>18</v>
@@ -7162,7 +7451,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="F16" s="35">
         <v>86</v>
@@ -7186,19 +7475,19 @@
         <v>1008</v>
       </c>
       <c r="U16" s="52" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="V16" s="100">
         <v>258</v>
       </c>
       <c r="W16" s="83" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="X16" s="100">
         <v>636</v>
       </c>
       <c r="Y16" s="83" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
@@ -7218,15 +7507,15 @@
       <c r="AM16" s="4"/>
       <c r="AN16" s="44"/>
       <c r="AO16" s="83" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="AP16" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="51" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="53"/>
@@ -7250,7 +7539,7 @@
         <v>664</v>
       </c>
       <c r="U17" s="52" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="V17" s="36"/>
       <c r="W17" s="36"/>
@@ -7272,16 +7561,16 @@
       <c r="AM17" s="4"/>
       <c r="AN17" s="44"/>
       <c r="AO17" s="52" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="AP17" s="112" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="AQ17" s="102"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="95" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>16</v>
@@ -7290,7 +7579,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="F18" s="35">
         <v>88</v>
@@ -7311,7 +7600,7 @@
         <v>665</v>
       </c>
       <c r="U18" s="52" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="V18" s="36"/>
       <c r="W18" s="36"/>
@@ -7327,25 +7616,25 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="41"/>
       <c r="AI18" s="80" t="s">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="80" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="AN18" s="44"/>
       <c r="AO18" s="52" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="AP18" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="51" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="53"/>
@@ -7366,7 +7655,7 @@
         <v>917</v>
       </c>
       <c r="U19" s="113" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
       <c r="V19" s="36"/>
       <c r="W19" s="36"/>
@@ -7388,18 +7677,18 @@
       <c r="AM19" s="4"/>
       <c r="AN19" s="44"/>
       <c r="AO19" s="113" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
       <c r="AP19" s="78" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="AQ19" s="112" t="s">
-        <v>545</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="51" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="53"/>
@@ -7420,7 +7709,7 @@
         <v>955</v>
       </c>
       <c r="U20" s="113" t="s">
-        <v>671</v>
+        <v>569</v>
       </c>
       <c r="V20" s="36"/>
       <c r="W20" s="36"/>
@@ -7442,13 +7731,13 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="44"/>
       <c r="AO20" s="113" t="s">
-        <v>671</v>
+        <v>569</v>
       </c>
       <c r="AP20" s="78" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="AQ20" s="112" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7459,7 +7748,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="F21" s="35">
         <v>91</v>
@@ -7480,7 +7769,7 @@
         <v>666</v>
       </c>
       <c r="U21" s="52" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="V21" s="36"/>
       <c r="W21" s="36"/>
@@ -7502,19 +7791,19 @@
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="80" t="s">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="AN21" s="44"/>
       <c r="AO21" s="52" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AP21" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="51" t="s">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="53"/>
@@ -7535,7 +7824,7 @@
         <v>667</v>
       </c>
       <c r="U22" s="52" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="V22" s="36"/>
       <c r="W22" s="36"/>
@@ -7551,20 +7840,20 @@
       <c r="AG22" s="5"/>
       <c r="AH22" s="41"/>
       <c r="AI22" s="80" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="80" t="s">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="AN22" s="44"/>
       <c r="AO22" s="52" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="AP22" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7575,7 +7864,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="F23" s="35">
         <v>93</v>
@@ -7596,7 +7885,7 @@
         <v>969</v>
       </c>
       <c r="U23" s="52" t="s">
-        <v>537</v>
+        <v>447</v>
       </c>
       <c r="V23" s="36"/>
       <c r="W23" s="36"/>
@@ -7618,10 +7907,10 @@
       <c r="AM23" s="32"/>
       <c r="AN23" s="44"/>
       <c r="AO23" s="52" t="s">
-        <v>537</v>
+        <v>447</v>
       </c>
       <c r="AP23" s="112" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="AQ23" s="102"/>
     </row>
@@ -7633,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="116" t="s">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="F24" s="35">
         <f>F23+1</f>
@@ -7655,13 +7944,13 @@
         <v>433</v>
       </c>
       <c r="S24" s="45" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="T24" s="52">
         <v>1000</v>
       </c>
       <c r="U24" s="52" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="V24" s="36"/>
       <c r="W24" s="36"/>
@@ -7681,21 +7970,21 @@
       </c>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="68" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="AL24" s="4"/>
       <c r="AM24" s="32"/>
       <c r="AN24" s="59"/>
       <c r="AO24" s="45" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="AP24" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="34" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="53"/>
@@ -7717,7 +8006,7 @@
         <v>434</v>
       </c>
       <c r="S25" s="45" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -7735,7 +8024,7 @@
       <c r="AG25" s="5"/>
       <c r="AH25" s="41"/>
       <c r="AI25" s="68" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
@@ -7743,21 +8032,21 @@
       <c r="AM25" s="32"/>
       <c r="AN25" s="44"/>
       <c r="AO25" s="45" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="AP25" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="34" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>569</v>
+        <v>479</v>
       </c>
       <c r="E26" s="116" t="s">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="F26" s="35">
         <f>F25+1</f>
@@ -7779,7 +8068,7 @@
         <v>435</v>
       </c>
       <c r="S26" s="45" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="36"/>
@@ -7804,21 +8093,21 @@
       <c r="AM26" s="32"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="45" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="AP26" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="34" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
       <c r="E27" s="116" t="s">
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="F27" s="35">
         <f>F26+1</f>
@@ -7840,7 +8129,7 @@
         <v>440</v>
       </c>
       <c r="S27" s="106" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="36"/>
@@ -7861,24 +8150,24 @@
       </c>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="68" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="AL27" s="4"/>
       <c r="AM27" s="32"/>
       <c r="AN27" s="59"/>
       <c r="AO27" s="107" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="AP27" s="78" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="AQ27" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="34" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="53"/>
@@ -7901,7 +8190,7 @@
         <v>446</v>
       </c>
       <c r="S28" s="106" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="36"/>
@@ -7924,13 +8213,13 @@
       <c r="AM28" s="32"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="107" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="AP28" s="78" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="AQ28" t="s">
-        <v>522</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7941,7 +8230,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="F29" s="35">
         <v>99</v>
@@ -7959,7 +8248,7 @@
         <v>488</v>
       </c>
       <c r="O29" s="48" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -7986,15 +8275,15 @@
       <c r="AM29" s="32"/>
       <c r="AN29" s="44"/>
       <c r="AO29" s="48" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="AP29" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="53"/>
@@ -8035,10 +8324,10 @@
       <c r="AM30" s="32"/>
       <c r="AN30" s="44"/>
       <c r="AO30" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="AP30" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8049,7 +8338,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="F31" s="35">
         <v>101</v>
@@ -8091,10 +8380,10 @@
       <c r="AM31" s="4"/>
       <c r="AN31" s="44"/>
       <c r="AO31" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="AP31" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8105,7 +8394,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="116" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="F32" s="35">
         <v>102</v>
@@ -8125,7 +8414,7 @@
         <v>90</v>
       </c>
       <c r="Q32" s="97" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -8151,10 +8440,10 @@
       <c r="AM32" s="4"/>
       <c r="AN32" s="44"/>
       <c r="AO32" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="AP32" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="3:43" x14ac:dyDescent="0.55000000000000004">
@@ -8165,7 +8454,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="F33" s="35">
         <v>103</v>
@@ -8201,7 +8490,7 @@
         <v>212</v>
       </c>
       <c r="AG33" s="56" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="AH33" s="41"/>
       <c r="AI33" s="4"/>
@@ -8211,10 +8500,10 @@
       <c r="AM33" s="4"/>
       <c r="AN33" s="44"/>
       <c r="AO33" s="56" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="AP33" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="3:43" x14ac:dyDescent="0.55000000000000004">
@@ -8222,10 +8511,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
       <c r="F34" s="35">
         <v>104</v>
@@ -8266,15 +8555,15 @@
       <c r="AM34" s="4"/>
       <c r="AN34" s="44"/>
       <c r="AO34" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="AP34" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="55" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="53"/>
@@ -8309,26 +8598,26 @@
         <v>214</v>
       </c>
       <c r="AG35" s="56" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
       <c r="AH35" s="41"/>
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
       <c r="AL35" s="82" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="AM35" s="4"/>
       <c r="AN35" s="44"/>
       <c r="AO35" s="56" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
       <c r="AP35" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="55" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="53"/>
@@ -8363,7 +8652,7 @@
         <v>385</v>
       </c>
       <c r="AG36" s="56" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="AH36" s="41"/>
       <c r="AI36" s="4"/>
@@ -8373,15 +8662,15 @@
       <c r="AM36" s="4"/>
       <c r="AN36" s="44"/>
       <c r="AO36" s="56" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="AP36" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="55" t="s">
-        <v>467</v>
+        <v>377</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="53"/>
@@ -8416,27 +8705,27 @@
         <v>215</v>
       </c>
       <c r="AG37" s="56" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="AH37" s="41"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
       <c r="AL37" s="82" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="AM37" s="4"/>
       <c r="AN37" s="44"/>
       <c r="AO37" s="56" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="AP37" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="55" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="53"/>
@@ -8471,7 +8760,7 @@
         <v>360</v>
       </c>
       <c r="AG38" s="56" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="AH38" s="41"/>
       <c r="AI38" s="4"/>
@@ -8481,15 +8770,15 @@
       <c r="AM38" s="4"/>
       <c r="AN38" s="44"/>
       <c r="AO38" s="56" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="AP38" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="55" t="s">
-        <v>469</v>
+        <v>379</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="53"/>
@@ -8524,7 +8813,7 @@
         <v>217</v>
       </c>
       <c r="AG39" s="56" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="AH39" s="41"/>
       <c r="AI39" s="4"/>
@@ -8534,21 +8823,21 @@
       <c r="AM39" s="4"/>
       <c r="AN39" s="44"/>
       <c r="AO39" s="56" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="AP39" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="86" t="s">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>563</v>
+        <v>473</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="F40" s="35">
         <v>110</v>
@@ -8577,7 +8866,7 @@
         <v>632</v>
       </c>
       <c r="AA40" s="86" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -8592,15 +8881,15 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="44"/>
       <c r="AO40" s="86" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="AP40" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="86" t="s">
-        <v>471</v>
+        <v>381</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="53"/>
@@ -8629,7 +8918,7 @@
         <v>633</v>
       </c>
       <c r="AA41" s="86" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
@@ -8641,20 +8930,20 @@
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
       <c r="AL41" s="91" t="s">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="AM41" s="4"/>
       <c r="AN41" s="44"/>
       <c r="AO41" s="86" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="AP41" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="86" t="s">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="53"/>
@@ -8683,7 +8972,7 @@
         <v>635</v>
       </c>
       <c r="AA42" s="86" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
@@ -8698,15 +8987,15 @@
       <c r="AM42" s="4"/>
       <c r="AN42" s="44"/>
       <c r="AO42" s="86" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="AP42" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="86" t="s">
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="53"/>
@@ -8735,13 +9024,13 @@
         <v>636</v>
       </c>
       <c r="AA43" s="87" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="AB43" s="87">
         <v>693</v>
       </c>
       <c r="AC43" s="87" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
@@ -8754,15 +9043,15 @@
       <c r="AM43" s="4"/>
       <c r="AN43" s="44"/>
       <c r="AO43" s="86" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="AP43" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="86" t="s">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="53"/>
@@ -8794,7 +9083,7 @@
         <v>1379</v>
       </c>
       <c r="AC44" s="86" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
@@ -8808,15 +9097,15 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="44"/>
       <c r="AO44" s="86" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="AP44" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="86" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="53"/>
@@ -8846,7 +9135,7 @@
         <v>938</v>
       </c>
       <c r="AA45" s="114" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -8862,15 +9151,15 @@
       <c r="AM45" s="4"/>
       <c r="AN45" s="44"/>
       <c r="AO45" s="86" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AP45" s="112" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="86" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="53"/>
@@ -8900,7 +9189,7 @@
         <v>638</v>
       </c>
       <c r="AA46" s="86" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -8916,21 +9205,21 @@
       <c r="AM46" s="4"/>
       <c r="AN46" s="44"/>
       <c r="AO46" s="86" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="AP46" t="s">
-        <v>318</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="E47" s="36" t="s">
         <v>477</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="E47" s="36" t="s">
-        <v>567</v>
       </c>
       <c r="F47" s="35">
         <v>117</v>
@@ -8960,13 +9249,13 @@
         <v>1011</v>
       </c>
       <c r="AA47" s="114" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
       <c r="AB47" s="87">
         <v>698</v>
       </c>
       <c r="AC47" s="110" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
@@ -8980,18 +9269,18 @@
       <c r="AM47" s="4"/>
       <c r="AN47" s="44"/>
       <c r="AO47" s="110" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
       <c r="AP47" s="78" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="AQ47" s="112" t="s">
-        <v>547</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="86" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="53"/>
@@ -9023,7 +9312,7 @@
         <v>752</v>
       </c>
       <c r="AC48" s="86" t="s">
-        <v>323</v>
+        <v>239</v>
       </c>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
@@ -9037,15 +9326,15 @@
       <c r="AM48" s="4"/>
       <c r="AN48" s="44"/>
       <c r="AO48" s="86" t="s">
-        <v>323</v>
+        <v>239</v>
       </c>
       <c r="AP48" t="s">
-        <v>322</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="86" t="s">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="53"/>
@@ -9077,7 +9366,7 @@
         <v>770</v>
       </c>
       <c r="AC49" s="86" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
@@ -9091,15 +9380,15 @@
       <c r="AM49" s="4"/>
       <c r="AN49" s="44"/>
       <c r="AO49" s="86" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="AP49" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="86" t="s">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="53"/>
@@ -9131,7 +9420,7 @@
         <v>771</v>
       </c>
       <c r="AC50" s="110" t="s">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
@@ -9145,13 +9434,13 @@
       <c r="AM50" s="4"/>
       <c r="AN50" s="44"/>
       <c r="AO50" s="110" t="s">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="AP50" s="78" t="s">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="AQ50" s="112" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="3:43" x14ac:dyDescent="0.55000000000000004">
@@ -9162,7 +9451,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="F51" s="35">
         <v>121</v>
@@ -9180,7 +9469,7 @@
         <v>490</v>
       </c>
       <c r="O51" s="48" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
@@ -9208,21 +9497,21 @@
       <c r="AM51" s="4"/>
       <c r="AN51" s="44"/>
       <c r="AO51" s="48" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="AP51" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="46" t="s">
-        <v>591</v>
+        <v>499</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>591</v>
+        <v>499</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="F52" s="35">
         <v>122</v>
@@ -9240,7 +9529,7 @@
         <v>825</v>
       </c>
       <c r="O52" s="48" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
@@ -9266,15 +9555,15 @@
       <c r="AM52" s="4"/>
       <c r="AN52" s="44"/>
       <c r="AO52" s="48" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="AP52" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="46" t="s">
-        <v>481</v>
+        <v>391</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="53"/>
@@ -9292,7 +9581,7 @@
         <v>827</v>
       </c>
       <c r="O53" s="48" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
@@ -9318,15 +9607,15 @@
       <c r="AM53" s="4"/>
       <c r="AN53" s="44"/>
       <c r="AO53" s="48" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="AP53" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="46" t="s">
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="53"/>
@@ -9344,7 +9633,7 @@
         <v>491</v>
       </c>
       <c r="O54" s="48" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
@@ -9364,7 +9653,7 @@
       <c r="AG54" s="5"/>
       <c r="AH54" s="41"/>
       <c r="AI54" s="77" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
@@ -9372,21 +9661,21 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="44"/>
       <c r="AO54" s="48" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="AP54" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="46" t="s">
-        <v>483</v>
+        <v>393</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="F55" s="35">
         <v>125</v>
@@ -9404,7 +9693,7 @@
         <v>492</v>
       </c>
       <c r="O55" s="48" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
@@ -9432,15 +9721,15 @@
       <c r="AM55" s="4"/>
       <c r="AN55" s="44"/>
       <c r="AO55" s="48" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="AP55" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="46" t="s">
-        <v>484</v>
+        <v>394</v>
       </c>
       <c r="D56" s="32"/>
       <c r="E56" s="53"/>
@@ -9458,7 +9747,7 @@
         <v>695</v>
       </c>
       <c r="O56" s="104" t="s">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
@@ -9478,7 +9767,7 @@
       <c r="AG56" s="5"/>
       <c r="AH56" s="41"/>
       <c r="AI56" s="77" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
@@ -9486,18 +9775,18 @@
       <c r="AM56" s="4"/>
       <c r="AN56" s="44"/>
       <c r="AO56" s="103" t="s">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="AP56" s="78" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="AQ56" t="s">
-        <v>515</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="101" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="53"/>
@@ -9537,15 +9826,15 @@
       <c r="AM57" s="4"/>
       <c r="AN57" s="44"/>
       <c r="AO57" t="s">
-        <v>341</v>
+        <v>255</v>
       </c>
       <c r="AP57" t="s">
-        <v>340</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="46" t="s">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="53"/>
@@ -9563,7 +9852,7 @@
         <v>731</v>
       </c>
       <c r="O58" s="104" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
@@ -9589,13 +9878,13 @@
       <c r="AM58" s="4"/>
       <c r="AN58" s="44"/>
       <c r="AO58" s="103" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="AP58" s="78" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="AQ58" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="3:43" x14ac:dyDescent="0.55000000000000004">
@@ -9624,7 +9913,7 @@
         <v>493</v>
       </c>
       <c r="O59" s="48" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -9652,15 +9941,15 @@
       <c r="AM59" s="4"/>
       <c r="AN59" s="44"/>
       <c r="AO59" s="48" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="AP59" t="s">
-        <v>344</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="46" t="s">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="D60" s="32"/>
       <c r="E60" s="53"/>
@@ -9678,7 +9967,7 @@
         <v>494</v>
       </c>
       <c r="O60" s="48" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
@@ -9698,7 +9987,7 @@
       <c r="AG60" s="5"/>
       <c r="AH60" s="41"/>
       <c r="AI60" s="77" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
@@ -9706,10 +9995,10 @@
       <c r="AM60" s="4"/>
       <c r="AN60" s="44"/>
       <c r="AO60" s="48" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="AP60" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="3:43" x14ac:dyDescent="0.55000000000000004">
@@ -9720,7 +10009,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F61" s="5">
         <v>131</v>
@@ -9738,7 +10027,7 @@
         <v>495</v>
       </c>
       <c r="O61" s="103" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="P61" s="105"/>
       <c r="Q61" s="5"/>
@@ -9766,10 +10055,10 @@
       <c r="AM61" s="4"/>
       <c r="AN61" s="44"/>
       <c r="AO61" s="48" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="AP61" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="3:43" x14ac:dyDescent="0.55000000000000004">
@@ -9780,7 +10069,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>590</v>
+        <v>498</v>
       </c>
       <c r="F62" s="5">
         <v>132</v>
@@ -9798,7 +10087,7 @@
         <v>552</v>
       </c>
       <c r="O62" s="48" t="s">
-        <v>352</v>
+        <v>263</v>
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
@@ -9826,15 +10115,15 @@
       <c r="AM62" s="4"/>
       <c r="AN62" s="44"/>
       <c r="AO62" s="48" t="s">
-        <v>352</v>
+        <v>263</v>
       </c>
       <c r="AP62" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="46" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="D63" s="32"/>
       <c r="E63" s="53"/>
@@ -9852,7 +10141,7 @@
         <v>575</v>
       </c>
       <c r="O63" s="48" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
@@ -9878,15 +10167,15 @@
       <c r="AM63" s="4"/>
       <c r="AN63" s="44"/>
       <c r="AO63" s="48" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="AP63" t="s">
-        <v>353</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="46" t="s">
-        <v>487</v>
+        <v>397</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="53"/>
@@ -9904,7 +10193,7 @@
         <v>585</v>
       </c>
       <c r="O64" s="48" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
@@ -9930,15 +10219,15 @@
       <c r="AM64" s="4"/>
       <c r="AN64" s="44"/>
       <c r="AO64" s="48" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="AP64" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="46" t="s">
-        <v>488</v>
+        <v>398</v>
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="53"/>
@@ -9956,7 +10245,7 @@
         <v>555</v>
       </c>
       <c r="O65" s="48" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
@@ -9982,15 +10271,15 @@
       <c r="AM65" s="4"/>
       <c r="AN65" s="44"/>
       <c r="AO65" s="48" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="AP65" t="s">
-        <v>357</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="46" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="53"/>
@@ -10008,7 +10297,7 @@
         <v>557</v>
       </c>
       <c r="O66" s="48" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
@@ -10034,15 +10323,15 @@
       <c r="AM66" s="4"/>
       <c r="AN66" s="44"/>
       <c r="AO66" s="48" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="AP66" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="46" t="s">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="D67" s="32"/>
       <c r="E67" s="53"/>
@@ -10060,7 +10349,7 @@
         <v>592</v>
       </c>
       <c r="O67" s="48" t="s">
-        <v>362</v>
+        <v>273</v>
       </c>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
@@ -10086,15 +10375,15 @@
       <c r="AM67" s="4"/>
       <c r="AN67" s="44"/>
       <c r="AO67" s="48" t="s">
-        <v>362</v>
+        <v>273</v>
       </c>
       <c r="AP67" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" s="46" t="s">
-        <v>491</v>
+        <v>401</v>
       </c>
       <c r="D68" s="32"/>
       <c r="E68" s="53"/>
@@ -10112,7 +10401,7 @@
         <v>624</v>
       </c>
       <c r="O68" s="104" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
@@ -10138,18 +10427,18 @@
       <c r="AM68" s="4"/>
       <c r="AN68" s="44"/>
       <c r="AO68" s="103" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="AP68" s="78" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="AQ68" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" s="46" t="s">
-        <v>492</v>
+        <v>402</v>
       </c>
       <c r="D69" s="32"/>
       <c r="E69" s="53"/>
@@ -10167,7 +10456,7 @@
         <v>657</v>
       </c>
       <c r="O69" s="48" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
@@ -10187,7 +10476,7 @@
       <c r="AG69" s="5"/>
       <c r="AH69" s="41"/>
       <c r="AI69" s="77" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
@@ -10195,21 +10484,21 @@
       <c r="AM69" s="4"/>
       <c r="AN69" s="44"/>
       <c r="AO69" s="48" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="AP69" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="46" t="s">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>557</v>
+        <v>467</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="F70" s="5">
         <v>140</v>
@@ -10227,7 +10516,7 @@
         <v>683</v>
       </c>
       <c r="O70" s="48" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
@@ -10255,18 +10544,18 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="44"/>
       <c r="AO70" s="48" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="AP70" t="s">
-        <v>367</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" s="46" t="s">
-        <v>428</v>
+        <v>338</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>428</v>
+        <v>338</v>
       </c>
       <c r="E71" s="35" t="s">
         <v>45</v>
@@ -10287,7 +10576,7 @@
         <v>684</v>
       </c>
       <c r="O71" s="48" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
@@ -10307,7 +10596,7 @@
       <c r="AG71" s="5"/>
       <c r="AH71" s="41"/>
       <c r="AI71" s="77" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4"/>
@@ -10315,10 +10604,10 @@
       <c r="AM71" s="4"/>
       <c r="AN71" s="44"/>
       <c r="AO71" s="48" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="AP71" t="s">
-        <v>369</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="3:43" x14ac:dyDescent="0.55000000000000004">
@@ -10347,7 +10636,7 @@
         <v>685</v>
       </c>
       <c r="O72" s="48" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
@@ -10375,15 +10664,15 @@
       <c r="AM72" s="4"/>
       <c r="AN72" s="44"/>
       <c r="AO72" s="48" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="AP72" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" s="46" t="s">
-        <v>493</v>
+        <v>403</v>
       </c>
       <c r="D73" s="32"/>
       <c r="E73" s="5"/>
@@ -10401,7 +10690,7 @@
         <v>686</v>
       </c>
       <c r="O73" s="48" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
@@ -10427,18 +10716,18 @@
       <c r="AM73" s="4"/>
       <c r="AN73" s="44"/>
       <c r="AO73" s="48" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="AP73" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" s="8" t="s">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>668</v>
+        <v>566</v>
       </c>
       <c r="E74" s="35" t="s">
         <v>73</v>
@@ -10536,13 +10825,13 @@
     </row>
     <row r="75" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" s="8" t="s">
-        <v>421</v>
+        <v>331</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>669</v>
+        <v>567</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="F75" s="31"/>
       <c r="G75" s="31"/>
@@ -10550,84 +10839,84 @@
         <v>65</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="J75" s="12">
         <v>119</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="L75" s="17">
         <v>613</v>
       </c>
       <c r="M75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="N75" s="48">
         <v>971</v>
       </c>
       <c r="O75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="P75" s="97">
         <v>175</v>
       </c>
       <c r="Q75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="R75" s="45">
         <v>861</v>
       </c>
       <c r="S75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="T75" s="52">
         <v>1317</v>
       </c>
       <c r="U75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="V75" s="100">
         <v>511</v>
       </c>
       <c r="W75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="X75" s="100">
         <v>1267</v>
       </c>
       <c r="Y75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Z75" s="87">
         <v>1259</v>
       </c>
       <c r="AA75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AB75" s="87">
         <v>1381</v>
       </c>
       <c r="AC75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AD75" s="85">
         <v>533</v>
       </c>
       <c r="AE75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AF75" s="56">
         <v>419</v>
       </c>
       <c r="AG75" s="25" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AH75" s="42"/>
       <c r="AI75" s="4"/>
       <c r="AJ75" s="18" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AK75" s="32"/>
       <c r="AL75" s="32"/>
@@ -10644,7 +10933,7 @@
         <v>46</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>592</v>
+        <v>500</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="31"/>
@@ -10697,7 +10986,7 @@
         <v>47</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>596</v>
+        <v>504</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="31"/>
@@ -10744,10 +11033,10 @@
     </row>
     <row r="78" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C78" s="1" t="s">
-        <v>429</v>
+        <v>339</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>593</v>
+        <v>501</v>
       </c>
       <c r="E78" s="35" t="s">
         <v>52</v>
@@ -10800,13 +11089,13 @@
     </row>
     <row r="79" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" s="1" t="s">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>594</v>
+        <v>502</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>597</v>
+        <v>505</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
@@ -10856,10 +11145,10 @@
     </row>
     <row r="80" spans="3:43" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" s="1" t="s">
-        <v>431</v>
+        <v>341</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>595</v>
+        <v>503</v>
       </c>
       <c r="E80" s="35" t="s">
         <v>56</v>
@@ -10912,10 +11201,10 @@
     </row>
     <row r="81" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C81" s="2" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
       <c r="E81" s="35" t="s">
         <v>59</v>
@@ -10965,10 +11254,10 @@
     </row>
     <row r="82" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="24" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="E82" s="35" t="s">
         <v>75</v>
@@ -11007,7 +11296,7 @@
       <c r="AG82" s="35"/>
       <c r="AH82" s="41"/>
       <c r="AI82" s="2" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AJ82" s="31"/>
       <c r="AK82" s="31"/>
@@ -11018,13 +11307,13 @@
     </row>
     <row r="83" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" s="14" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="E83" s="119" t="s">
-        <v>167</v>
+        <v>572</v>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="31"/>
@@ -11036,7 +11325,7 @@
         <v>344</v>
       </c>
       <c r="M83" s="28" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="N83" s="35"/>
       <c r="O83" s="35"/>
@@ -11071,13 +11360,13 @@
     </row>
     <row r="84" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C84" s="24" t="s">
-        <v>552</v>
+        <v>462</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>157</v>
+        <v>462</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -11089,7 +11378,7 @@
         <v>315</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="N84" s="35"/>
       <c r="O84" s="35"/>
@@ -11113,7 +11402,7 @@
       <c r="AG84" s="35"/>
       <c r="AH84" s="41"/>
       <c r="AI84" s="6" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="AJ84" s="31"/>
       <c r="AK84" s="31"/>
@@ -11124,13 +11413,13 @@
     </row>
     <row r="85" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" s="14" t="s">
-        <v>496</v>
+        <v>406</v>
       </c>
       <c r="D85" s="36" t="s">
-        <v>496</v>
+        <v>406</v>
       </c>
       <c r="E85" s="119" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="31"/>
@@ -11142,7 +11431,7 @@
         <v>527</v>
       </c>
       <c r="M85" s="28" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="N85" s="35"/>
       <c r="O85" s="35"/>
@@ -11177,13 +11466,13 @@
     </row>
     <row r="86" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" s="14" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="E86" s="119" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="F86" s="31"/>
       <c r="G86" s="31"/>
@@ -11195,7 +11484,7 @@
         <v>506</v>
       </c>
       <c r="M86" s="28" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="N86" s="35"/>
       <c r="O86" s="35"/>
@@ -11230,13 +11519,13 @@
     </row>
     <row r="87" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" s="14" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="E87" s="119" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="F87" s="31"/>
       <c r="G87" s="31"/>
@@ -11248,7 +11537,7 @@
         <v>487</v>
       </c>
       <c r="M87" s="28" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="N87" s="35"/>
       <c r="O87" s="35"/>
@@ -11283,13 +11572,13 @@
     </row>
     <row r="88" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="14" t="s">
-        <v>497</v>
+        <v>407</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>604</v>
+        <v>510</v>
       </c>
       <c r="E88" s="119" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="F88" s="31"/>
       <c r="G88" s="31"/>
@@ -11301,7 +11590,7 @@
         <v>423</v>
       </c>
       <c r="M88" s="28" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="N88" s="35"/>
       <c r="O88" s="35"/>
@@ -11336,10 +11625,10 @@
     </row>
     <row r="89" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" s="11" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>598</v>
+        <v>506</v>
       </c>
       <c r="E89" s="35" t="s">
         <v>69</v>
@@ -11389,13 +11678,13 @@
     </row>
     <row r="90" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" s="11" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>599</v>
+        <v>507</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
@@ -11442,13 +11731,13 @@
     </row>
     <row r="91" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" s="11" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="D91" s="36" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="F91" s="31"/>
       <c r="G91" s="31"/>
@@ -11495,13 +11784,13 @@
     </row>
     <row r="92" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" s="11" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="D92" s="36" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>601</v>
+        <v>509</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="31"/>
@@ -11548,13 +11837,13 @@
     </row>
     <row r="93" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" s="11" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="F93" s="31"/>
       <c r="G93" s="31"/>
@@ -11564,7 +11853,7 @@
         <v>116</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="L93" s="31"/>
       <c r="M93" s="31"/>
@@ -11590,7 +11879,7 @@
       <c r="AG93" s="35"/>
       <c r="AH93" s="41"/>
       <c r="AI93" s="63" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="AJ93" s="31"/>
       <c r="AK93" s="31"/>
@@ -11601,13 +11890,13 @@
     </row>
     <row r="94" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C94" s="75" t="s">
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>608</v>
+        <v>513</v>
       </c>
       <c r="E94" s="119" t="s">
-        <v>187</v>
+        <v>576</v>
       </c>
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
@@ -11615,7 +11904,7 @@
         <v>827</v>
       </c>
       <c r="S94" s="69" t="s">
-        <v>378</v>
+        <v>288</v>
       </c>
       <c r="T94" s="36"/>
       <c r="Z94" s="31"/>
@@ -11628,23 +11917,23 @@
       <c r="AG94" s="31"/>
       <c r="AH94" s="39"/>
       <c r="AI94" s="68" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="AK94" s="75" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="AM94" s="54"/>
       <c r="AN94" s="59"/>
     </row>
     <row r="95" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" s="109" t="s">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="E95" s="119" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
@@ -11652,7 +11941,7 @@
         <v>741</v>
       </c>
       <c r="S95" s="108" t="s">
-        <v>524</v>
+        <v>434</v>
       </c>
       <c r="T95" s="36"/>
       <c r="Z95" s="31"/>
@@ -11665,23 +11954,23 @@
       <c r="AG95" s="31"/>
       <c r="AH95" s="39"/>
       <c r="AI95" s="68" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="AK95" s="68" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="AM95" s="54"/>
       <c r="AN95" s="59"/>
     </row>
     <row r="96" spans="3:42" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" s="34" t="s">
-        <v>408</v>
+        <v>318</v>
       </c>
       <c r="D96" s="36" t="s">
-        <v>611</v>
+        <v>515</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>612</v>
+        <v>516</v>
       </c>
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
@@ -11689,585 +11978,585 @@
         <v>742</v>
       </c>
       <c r="S96" s="45" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="T96" s="36"/>
       <c r="AH96" s="39"/>
       <c r="AI96" s="68" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="AK96" s="34" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="AM96" s="54"/>
       <c r="AN96" s="59"/>
     </row>
     <row r="97" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="34" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>613</v>
-      </c>
-      <c r="E97" s="121" t="s">
-        <v>614</v>
+        <v>517</v>
+      </c>
+      <c r="E97" s="122" t="s">
+        <v>518</v>
       </c>
       <c r="R97" s="45">
         <v>812</v>
       </c>
       <c r="S97" s="45" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="T97" s="36"/>
       <c r="AH97" s="39"/>
       <c r="AK97" s="34" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="AM97" s="54"/>
       <c r="AN97" s="59"/>
     </row>
     <row r="98" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="34" t="s">
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="D98" s="36" t="s">
-        <v>615</v>
-      </c>
-      <c r="E98" s="121" t="s">
-        <v>616</v>
+        <v>519</v>
+      </c>
+      <c r="E98" s="122" t="s">
+        <v>520</v>
       </c>
       <c r="R98" s="45">
         <v>743</v>
       </c>
       <c r="S98" s="45" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="T98" s="36"/>
       <c r="AH98" s="39"/>
       <c r="AI98" s="68" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="AK98" s="34" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="AM98" s="54"/>
       <c r="AN98" s="59"/>
     </row>
     <row r="99" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" s="34" t="s">
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="D99" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="E99" s="105" t="s">
-        <v>614</v>
+        <v>521</v>
+      </c>
+      <c r="E99" s="122" t="s">
+        <v>518</v>
       </c>
       <c r="R99" s="45">
         <v>745</v>
       </c>
       <c r="S99" s="45" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="T99" s="36"/>
       <c r="AH99" s="39"/>
       <c r="AK99" s="34" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="AM99" s="54"/>
       <c r="AN99" s="59"/>
     </row>
     <row r="100" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C100" s="75" t="s">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>618</v>
-      </c>
-      <c r="E100" s="121" t="s">
-        <v>620</v>
+        <v>522</v>
+      </c>
+      <c r="E100" s="122" t="s">
+        <v>524</v>
       </c>
       <c r="R100" s="45">
         <v>785</v>
       </c>
       <c r="S100" s="69" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="T100" s="36"/>
       <c r="AH100" s="39"/>
       <c r="AI100" s="68" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="AK100" s="94" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="AM100" s="54"/>
       <c r="AN100" s="59"/>
     </row>
     <row r="101" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" s="109" t="s">
-        <v>413</v>
+        <v>323</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>619</v>
+        <v>523</v>
       </c>
       <c r="E101" s="121" t="s">
-        <v>621</v>
+        <v>578</v>
       </c>
       <c r="R101" s="45">
         <v>826</v>
       </c>
       <c r="S101" s="108" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
       <c r="T101" s="36"/>
       <c r="AH101" s="39"/>
       <c r="AK101" s="94" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="AM101" s="54"/>
       <c r="AN101" s="59"/>
     </row>
     <row r="102" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C102" s="75" t="s">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>622</v>
-      </c>
-      <c r="E102" s="121" t="s">
-        <v>623</v>
+        <v>525</v>
+      </c>
+      <c r="E102" s="122" t="s">
+        <v>526</v>
       </c>
       <c r="R102" s="45">
         <v>727</v>
       </c>
       <c r="S102" s="69" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="T102" s="36"/>
       <c r="AH102" s="39"/>
       <c r="AK102" s="94" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="AM102" s="54"/>
       <c r="AN102" s="59"/>
     </row>
     <row r="103" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C103" s="34" t="s">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="D103" s="32"/>
       <c r="R103" s="45">
         <v>439</v>
       </c>
       <c r="S103" s="45" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="T103" s="36"/>
       <c r="AH103" s="39"/>
       <c r="AI103" s="68" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="AK103" s="34" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="AM103" s="54"/>
       <c r="AN103" s="59"/>
     </row>
     <row r="104" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" s="109" t="s">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="E104" s="121" t="s">
-        <v>625</v>
+        <v>579</v>
       </c>
       <c r="R104" s="45">
         <v>597</v>
       </c>
       <c r="S104" s="108" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="T104" s="36"/>
       <c r="AH104" s="39"/>
       <c r="AK104" s="34" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="AM104" s="54"/>
       <c r="AN104" s="59"/>
     </row>
     <row r="105" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C105" s="34" t="s">
-        <v>417</v>
+        <v>327</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>627</v>
-      </c>
-      <c r="E105" s="121" t="s">
-        <v>626</v>
+        <v>529</v>
+      </c>
+      <c r="E105" s="122" t="s">
+        <v>528</v>
       </c>
       <c r="R105" s="45">
         <v>615</v>
       </c>
       <c r="S105" s="45" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="T105" s="36"/>
       <c r="AH105" s="39"/>
       <c r="AK105" s="34" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="AM105" s="54"/>
       <c r="AN105" s="59"/>
     </row>
     <row r="106" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C106" s="34" t="s">
-        <v>418</v>
+        <v>328</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>629</v>
-      </c>
-      <c r="E106" s="121" t="s">
-        <v>628</v>
+        <v>531</v>
+      </c>
+      <c r="E106" s="122" t="s">
+        <v>530</v>
       </c>
       <c r="R106" s="45">
         <v>560</v>
       </c>
       <c r="S106" s="45" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="T106" s="36"/>
       <c r="AH106" s="39"/>
       <c r="AK106" s="34" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="AM106" s="54"/>
       <c r="AN106" s="59"/>
     </row>
     <row r="107" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" s="34" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>630</v>
-      </c>
-      <c r="E107" s="121" t="s">
-        <v>631</v>
+        <v>532</v>
+      </c>
+      <c r="E107" s="122" t="s">
+        <v>533</v>
       </c>
       <c r="R107" s="45">
         <v>510</v>
       </c>
       <c r="S107" s="45" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="T107" s="36"/>
       <c r="AH107" s="39"/>
       <c r="AK107" s="34" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="AM107" s="54"/>
       <c r="AN107" s="59"/>
     </row>
     <row r="108" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C108" s="34" t="s">
-        <v>419</v>
+        <v>329</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>632</v>
-      </c>
-      <c r="E108" s="121" t="s">
-        <v>382</v>
+        <v>534</v>
+      </c>
+      <c r="E108" s="122" t="s">
+        <v>292</v>
       </c>
       <c r="R108" s="45">
         <v>518</v>
       </c>
       <c r="S108" s="45" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="T108" s="36"/>
       <c r="AH108" s="39"/>
       <c r="AK108" s="34" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="AM108" s="54"/>
       <c r="AN108" s="59"/>
     </row>
     <row r="109" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C109" s="34" t="s">
-        <v>504</v>
+        <v>414</v>
       </c>
       <c r="D109" s="36" t="s">
-        <v>633</v>
-      </c>
-      <c r="E109" s="121" t="s">
-        <v>634</v>
+        <v>535</v>
+      </c>
+      <c r="E109" s="122" t="s">
+        <v>536</v>
       </c>
       <c r="R109" s="45">
         <v>445</v>
       </c>
       <c r="S109" s="45" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="T109" s="36"/>
       <c r="AH109" s="39"/>
       <c r="AK109" s="34" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="AM109" s="54"/>
       <c r="AN109" s="59"/>
     </row>
     <row r="110" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C110" s="34" t="s">
-        <v>505</v>
+        <v>415</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>635</v>
+        <v>537</v>
       </c>
       <c r="E110" s="115" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="R110" s="45">
         <v>625</v>
       </c>
       <c r="S110" s="45" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="T110" s="36"/>
       <c r="AH110" s="39"/>
       <c r="AK110" s="34" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="AM110" s="54"/>
       <c r="AN110" s="59"/>
     </row>
     <row r="111" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C111" s="34" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>636</v>
-      </c>
-      <c r="E111" s="105" t="s">
-        <v>637</v>
+        <v>538</v>
+      </c>
+      <c r="E111" s="122" t="s">
+        <v>539</v>
       </c>
       <c r="R111" s="45">
         <v>437</v>
       </c>
       <c r="S111" s="45" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="T111" s="36"/>
       <c r="AH111" s="39"/>
       <c r="AI111" s="34" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="AM111" s="31"/>
     </row>
     <row r="112" spans="3:40" x14ac:dyDescent="0.55000000000000004">
       <c r="C112" s="34" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>638</v>
+        <v>540</v>
       </c>
       <c r="E112" s="115" t="s">
-        <v>639</v>
+        <v>541</v>
       </c>
       <c r="R112" s="45">
         <v>813</v>
       </c>
       <c r="S112" s="45" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="T112" s="36"/>
       <c r="AH112" s="39"/>
       <c r="AI112" s="34" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="AM112" s="31"/>
     </row>
     <row r="113" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C113" s="34" t="s">
-        <v>508</v>
+        <v>418</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>640</v>
-      </c>
-      <c r="E113" s="121" t="s">
-        <v>641</v>
+        <v>542</v>
+      </c>
+      <c r="E113" s="122" t="s">
+        <v>543</v>
       </c>
       <c r="R113" s="45">
         <v>814</v>
       </c>
       <c r="S113" s="45" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="T113" s="36"/>
       <c r="AH113" s="39"/>
       <c r="AI113" s="34" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="AM113" s="31"/>
     </row>
     <row r="114" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C114" s="34" t="s">
-        <v>509</v>
+        <v>419</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="E114" s="121" t="s">
-        <v>643</v>
+        <v>544</v>
+      </c>
+      <c r="E114" s="122" t="s">
+        <v>545</v>
       </c>
       <c r="R114" s="45">
         <v>810</v>
       </c>
       <c r="S114" s="45" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="T114" s="36"/>
       <c r="AH114" s="39"/>
       <c r="AI114" s="34" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C115" s="47" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
       <c r="N115" s="49">
         <v>693</v>
       </c>
       <c r="O115" s="49" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="AH115" s="39"/>
       <c r="AI115" s="49" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C116" s="47" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="D116" s="36" t="s">
-        <v>583</v>
-      </c>
-      <c r="E116" s="105" t="s">
-        <v>584</v>
+        <v>493</v>
+      </c>
+      <c r="E116" s="122" t="s">
+        <v>494</v>
       </c>
       <c r="N116" s="49">
         <v>489</v>
       </c>
       <c r="O116" s="49" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="AH116" s="39"/>
       <c r="AI116" s="49" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C117" s="47" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="D117" s="36" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>607</v>
+        <v>512</v>
       </c>
       <c r="N117" s="49">
         <v>949</v>
       </c>
       <c r="O117" s="49" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="T117" s="31"/>
       <c r="AH117" s="39"/>
       <c r="AI117" s="49" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C118" s="79" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="D118" s="120"/>
       <c r="E118" s="31"/>
       <c r="G118" s="31"/>
       <c r="T118" s="52" t="s">
-        <v>538</v>
+        <v>448</v>
       </c>
       <c r="U118" s="79" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="AH118" s="39"/>
       <c r="AI118" s="52" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C119" s="51" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="D119" s="36" t="s">
-        <v>644</v>
+        <v>546</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>645</v>
+        <v>547</v>
       </c>
       <c r="G119" s="31"/>
       <c r="T119" s="52">
         <v>970</v>
       </c>
       <c r="U119" s="52" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="AH119" s="39"/>
       <c r="AI119" s="51" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C120" s="51" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="D120" s="36" t="s">
-        <v>646</v>
-      </c>
-      <c r="E120" s="35" t="s">
-        <v>647</v>
+        <v>548</v>
+      </c>
+      <c r="E120" s="119" t="s">
+        <v>580</v>
       </c>
       <c r="G120" s="31"/>
       <c r="T120" s="52">
         <v>986</v>
       </c>
       <c r="U120" s="111" t="s">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="AH120" s="39"/>
       <c r="AI120" s="51" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C121" s="51" t="s">
-        <v>209</v>
+        <v>570</v>
       </c>
       <c r="D121" s="36" t="s">
-        <v>648</v>
+        <v>571</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>649</v>
+        <v>549</v>
       </c>
       <c r="G121" s="31"/>
       <c r="T121" s="52">
@@ -12283,241 +12572,241 @@
     </row>
     <row r="122" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C122" s="51" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>651</v>
+        <v>551</v>
       </c>
       <c r="G122" s="31"/>
       <c r="T122" s="52">
         <v>852</v>
       </c>
       <c r="U122" s="51" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="AH122" s="39"/>
       <c r="AI122" s="51" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C123" s="79" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="D123" s="120"/>
       <c r="E123" s="31"/>
       <c r="G123" s="31"/>
       <c r="T123" s="52" t="s">
-        <v>538</v>
+        <v>448</v>
       </c>
       <c r="U123" s="79" t="s">
-        <v>392</v>
+        <v>302</v>
       </c>
       <c r="AH123" s="39"/>
       <c r="AI123" s="79" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="AM123" s="51" t="s">
-        <v>392</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C124" s="92" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>652</v>
-      </c>
-      <c r="E124" s="119" t="s">
-        <v>653</v>
+        <v>552</v>
+      </c>
+      <c r="E124" s="123" t="s">
+        <v>553</v>
       </c>
       <c r="G124" s="31"/>
       <c r="T124" s="52">
         <v>669</v>
       </c>
       <c r="U124" s="81" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="AH124" s="39"/>
       <c r="AI124" s="79" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="AM124" s="93" t="s">
-        <v>391</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C125" s="51" t="s">
-        <v>379</v>
+        <v>289</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>379</v>
+        <v>289</v>
       </c>
       <c r="E125" s="119" t="s">
-        <v>654</v>
+        <v>581</v>
       </c>
       <c r="G125" s="31"/>
       <c r="T125" s="52">
         <v>849</v>
       </c>
       <c r="U125" s="111" t="s">
-        <v>542</v>
+        <v>452</v>
       </c>
       <c r="AH125" s="39"/>
       <c r="AM125" s="51" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C126" s="92" t="s">
-        <v>426</v>
+        <v>336</v>
       </c>
       <c r="D126" s="36" t="s">
-        <v>655</v>
-      </c>
-      <c r="E126" s="119" t="s">
-        <v>381</v>
+        <v>554</v>
+      </c>
+      <c r="E126" s="123" t="s">
+        <v>291</v>
       </c>
       <c r="G126" s="31"/>
       <c r="T126" s="52">
         <v>889</v>
       </c>
       <c r="U126" s="81" t="s">
-        <v>398</v>
+        <v>308</v>
       </c>
       <c r="AH126" s="39"/>
       <c r="AM126" s="93" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C127" s="92" t="s">
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="D127" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E127" s="119" t="s">
-        <v>382</v>
+        <v>555</v>
+      </c>
+      <c r="E127" s="123" t="s">
+        <v>292</v>
       </c>
       <c r="G127" s="31"/>
       <c r="T127" s="52">
         <v>763</v>
       </c>
       <c r="U127" s="81" t="s">
-        <v>396</v>
+        <v>306</v>
       </c>
       <c r="AH127" s="39"/>
       <c r="AM127" s="93" t="s">
-        <v>382</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C128" s="51" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="D128" s="36" t="s">
-        <v>657</v>
+        <v>556</v>
       </c>
       <c r="E128" s="119" t="s">
-        <v>643</v>
+        <v>582</v>
       </c>
       <c r="G128" s="31"/>
       <c r="T128" s="52">
         <v>748</v>
       </c>
       <c r="U128" s="111" t="s">
-        <v>543</v>
+        <v>453</v>
       </c>
       <c r="AH128" s="39"/>
       <c r="AM128" s="51" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C129" s="51" t="s">
-        <v>385</v>
+        <v>295</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>658</v>
+        <v>557</v>
       </c>
       <c r="E129" s="119" t="s">
-        <v>167</v>
+        <v>583</v>
       </c>
       <c r="G129" s="31"/>
       <c r="T129" s="52">
         <v>768</v>
       </c>
       <c r="U129" s="111" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="AH129" s="39"/>
       <c r="AI129" s="79" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="AM129" s="51" t="s">
-        <v>386</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C130" s="51" t="s">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="D130" s="36" t="s">
-        <v>659</v>
+        <v>558</v>
       </c>
       <c r="E130" s="36" t="s">
-        <v>660</v>
+        <v>584</v>
       </c>
       <c r="G130" s="31"/>
       <c r="T130" s="52">
         <v>747</v>
       </c>
       <c r="U130" s="51" t="s">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="AH130" s="39"/>
       <c r="AI130" s="79" t="s">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="AM130" s="51" t="s">
-        <v>389</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C131" s="55" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="D131" s="36" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="E131" s="36" t="s">
-        <v>667</v>
+        <v>565</v>
       </c>
       <c r="G131" s="31"/>
       <c r="AF131" s="56">
         <v>340</v>
       </c>
       <c r="AG131" s="56" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="AH131" s="39"/>
       <c r="AL131" s="55" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C132" s="85" t="s">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="D132" s="36" t="s">
-        <v>665</v>
+        <v>563</v>
       </c>
       <c r="E132" s="36" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="G132" s="31"/>
       <c r="AD132" s="99">
@@ -12530,86 +12819,86 @@
     </row>
     <row r="133" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C133" s="83" t="s">
-        <v>422</v>
+        <v>332</v>
       </c>
       <c r="D133" s="36" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="X133" s="100">
         <v>639</v>
       </c>
       <c r="Y133" s="83" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="AH133" s="39"/>
       <c r="AI133" s="83" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C134" s="83" t="s">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="D134" s="36" t="s">
-        <v>664</v>
+        <v>562</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="X134" s="100">
         <v>638</v>
       </c>
       <c r="Y134" s="83" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="AH134" s="39"/>
       <c r="AI134" s="83" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C135" s="83" t="s">
-        <v>424</v>
+        <v>334</v>
       </c>
       <c r="D135" s="36" t="s">
-        <v>661</v>
+        <v>559</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="V135" s="100">
         <v>387</v>
       </c>
       <c r="W135" s="83" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="AH135" s="39"/>
       <c r="AI135" s="83" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136" spans="3:39" x14ac:dyDescent="0.55000000000000004">
       <c r="C136" s="83" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="D136" s="36" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="V136" s="100">
         <v>502</v>
       </c>
       <c r="W136" s="83" t="s">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="AH136" s="39"/>
       <c r="AI136" s="83" t="s">
-        <v>402</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -12617,1679 +12906,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC508F63-686C-4D63-8363-FB82F2148C8F}">
-  <dimension ref="A1:G72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F72" sqref="F2:F72"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.05078125" customWidth="1"/>
-    <col min="7" max="7" width="31.26171875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2">
-        <v>1.64194952116659</v>
-      </c>
-      <c r="C2">
-        <v>0.424774751507211</v>
-      </c>
-      <c r="D2">
-        <v>12.651769679807</v>
-      </c>
-      <c r="E2">
-        <v>1714.56490739118</v>
-      </c>
-      <c r="F2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3">
-        <v>1.2750275092757399</v>
-      </c>
-      <c r="C3">
-        <v>0.17047447348220701</v>
-      </c>
-      <c r="D3">
-        <v>3.17132462581543</v>
-      </c>
-      <c r="E3">
-        <v>804.18055248392398</v>
-      </c>
-      <c r="F3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4">
-        <v>0.56232240186814397</v>
-      </c>
-      <c r="C4">
-        <v>8.0402226150742398E-2</v>
-      </c>
-      <c r="D4">
-        <v>3.5068081750987197E-2</v>
-      </c>
-      <c r="E4">
-        <v>299.836658087567</v>
-      </c>
-      <c r="F4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5">
-        <v>0.45923291469171001</v>
-      </c>
-      <c r="C5">
-        <v>6.8284792734644204E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.4890663390274799E-2</v>
-      </c>
-      <c r="E5">
-        <v>623.43345346594401</v>
-      </c>
-      <c r="F5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6">
-        <v>0.79011638753798896</v>
-      </c>
-      <c r="C6">
-        <v>1.3942819457611E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.89685777547908796</v>
-      </c>
-      <c r="E6">
-        <v>6.1525561877657697</v>
-      </c>
-      <c r="F6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7">
-        <v>0.77615108889839102</v>
-      </c>
-      <c r="C7">
-        <v>1.28989510898815E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.86609165330906401</v>
-      </c>
-      <c r="E7">
-        <v>6.0243529155374897</v>
-      </c>
-      <c r="F7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8">
-        <v>0.62814075635122402</v>
-      </c>
-      <c r="C8">
-        <v>1.9449450236267499E-2</v>
-      </c>
-      <c r="D8">
-        <v>-0.389133296320192</v>
-      </c>
-      <c r="E8">
-        <v>4.8801899203858801</v>
-      </c>
-      <c r="F8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9">
-        <v>0.65262227623306102</v>
-      </c>
-      <c r="C9">
-        <v>1.74693989396617E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.30226225010755098</v>
-      </c>
-      <c r="E9">
-        <v>11.273667008151801</v>
-      </c>
-      <c r="F9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10">
-        <v>0.54984759810467998</v>
-      </c>
-      <c r="C10">
-        <v>2.7666581556930799E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.2470575236666599</v>
-      </c>
-      <c r="E10">
-        <v>14.65268284221</v>
-      </c>
-      <c r="F10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11">
-        <v>0.74351774099197498</v>
-      </c>
-      <c r="C11">
-        <v>9.6768455827750503E-3</v>
-      </c>
-      <c r="D11">
-        <v>0.70644071257554797</v>
-      </c>
-      <c r="E11">
-        <v>5.9854241569528703</v>
-      </c>
-      <c r="F11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12">
-        <v>0.69400407198835001</v>
-      </c>
-      <c r="C12">
-        <v>6.2334042377841003E-3</v>
-      </c>
-      <c r="D12">
-        <v>0.43102002613485602</v>
-      </c>
-      <c r="E12">
-        <v>4.9530835715533001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13">
-        <v>0.59555646756685099</v>
-      </c>
-      <c r="C13">
-        <v>1.6953545070411E-2</v>
-      </c>
-      <c r="D13">
-        <v>-1.24256370545365</v>
-      </c>
-      <c r="E13">
-        <v>19.856367240052801</v>
-      </c>
-      <c r="F13" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14">
-        <v>0.67797282271558501</v>
-      </c>
-      <c r="C14">
-        <v>5.5903102710985701E-3</v>
-      </c>
-      <c r="D14">
-        <v>0.37045522398570302</v>
-      </c>
-      <c r="E14">
-        <v>4.4640131552036504</v>
-      </c>
-      <c r="F14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15">
-        <v>0.59635997498540505</v>
-      </c>
-      <c r="C15">
-        <v>1.55475455324649E-2</v>
-      </c>
-      <c r="D15">
-        <v>-1.2390963079764099</v>
-      </c>
-      <c r="E15">
-        <v>13.5715396197707</v>
-      </c>
-      <c r="F15" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16">
-        <v>0.67143938268498105</v>
-      </c>
-      <c r="C16">
-        <v>5.41137883878616E-3</v>
-      </c>
-      <c r="D16">
-        <v>0.35493573473575302</v>
-      </c>
-      <c r="E16">
-        <v>4.3286540477191604</v>
-      </c>
-      <c r="F16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17">
-        <v>0.53833781677107995</v>
-      </c>
-      <c r="C17">
-        <v>2.7093642526621602E-2</v>
-      </c>
-      <c r="D17">
-        <v>-2.1152186856524202</v>
-      </c>
-      <c r="E17">
-        <v>70.375347459059299</v>
-      </c>
-      <c r="F17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18">
-        <v>0.14820757512407201</v>
-      </c>
-      <c r="C18">
-        <v>2.1150585436046299E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.417019565153955</v>
-      </c>
-      <c r="E18">
-        <v>367.218417804426</v>
-      </c>
-      <c r="F18" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19">
-        <v>6.9910913508588995E-2</v>
-      </c>
-      <c r="C19">
-        <v>1.51802475160969E-2</v>
-      </c>
-      <c r="D19">
-        <v>1.1198062660469601</v>
-      </c>
-      <c r="E19">
-        <v>331.49723640701802</v>
-      </c>
-      <c r="F19" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20">
-        <v>0.46715473049887501</v>
-      </c>
-      <c r="C20">
-        <v>3.12211434177465E-2</v>
-      </c>
-      <c r="D20">
-        <v>-1.9656684352312901</v>
-      </c>
-      <c r="E20">
-        <v>117.01193504961</v>
-      </c>
-      <c r="F20" t="s">
-        <v>268</v>
-      </c>
-      <c r="G20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21">
-        <v>0.39711457505320902</v>
-      </c>
-      <c r="C21">
-        <v>3.1305199915297503E-2</v>
-      </c>
-      <c r="D21">
-        <v>-1.4151849737054401</v>
-      </c>
-      <c r="E21">
-        <v>427.39103684072597</v>
-      </c>
-      <c r="F21" t="s">
-        <v>270</v>
-      </c>
-      <c r="G21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22">
-        <v>0.66003942824189998</v>
-      </c>
-      <c r="C22">
-        <v>5.2061683587388101E-3</v>
-      </c>
-      <c r="D22">
-        <v>0.34088079606934202</v>
-      </c>
-      <c r="E22">
-        <v>4.2069819816662104</v>
-      </c>
-      <c r="F22" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23">
-        <v>0.57713121458559202</v>
-      </c>
-      <c r="C23">
-        <v>7.0152274540848398E-3</v>
-      </c>
-      <c r="D23">
-        <v>-0.63388025418015004</v>
-      </c>
-      <c r="E23">
-        <v>7.5085866489029804</v>
-      </c>
-      <c r="F23" t="s">
-        <v>274</v>
-      </c>
-      <c r="G23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24">
-        <v>0.55399968603275196</v>
-      </c>
-      <c r="C24">
-        <v>7.6813693740168699E-3</v>
-      </c>
-      <c r="D24">
-        <v>-0.96445480959158902</v>
-      </c>
-      <c r="E24">
-        <v>7.3426720727367698</v>
-      </c>
-      <c r="F24" t="s">
-        <v>276</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25">
-        <v>0.506969434346495</v>
-      </c>
-      <c r="C25">
-        <v>9.1662495703531497E-3</v>
-      </c>
-      <c r="D25">
-        <v>-1.51323271125153</v>
-      </c>
-      <c r="E25">
-        <v>6.2938733690460102</v>
-      </c>
-      <c r="F25" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26">
-        <v>0.16170125373343</v>
-      </c>
-      <c r="C26">
-        <v>3.1112006176683402E-2</v>
-      </c>
-      <c r="D26">
-        <v>5.8630150837597803</v>
-      </c>
-      <c r="E26">
-        <v>624.14826514733295</v>
-      </c>
-      <c r="F26" t="s">
-        <v>280</v>
-      </c>
-      <c r="G26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27">
-        <v>6.8589713878981398E-2</v>
-      </c>
-      <c r="C27">
-        <v>1.71657871152621E-2</v>
-      </c>
-      <c r="D27">
-        <v>3.2247050798900201</v>
-      </c>
-      <c r="E27">
-        <v>169.67164309871501</v>
-      </c>
-      <c r="F27" t="s">
-        <v>282</v>
-      </c>
-      <c r="G27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28">
-        <v>0.69452226362508296</v>
-      </c>
-      <c r="C28">
-        <v>7.0378473908436602E-3</v>
-      </c>
-      <c r="D28">
-        <v>0.31953618970334702</v>
-      </c>
-      <c r="E28">
-        <v>7.6186583954799802</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="G28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29">
-        <v>0.68682084411334099</v>
-      </c>
-      <c r="C29">
-        <v>6.7736436195549102E-3</v>
-      </c>
-      <c r="D29">
-        <v>0.23974827338559501</v>
-      </c>
-      <c r="E29">
-        <v>8.01406626269792</v>
-      </c>
-      <c r="F29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30">
-        <v>0.66022367566934104</v>
-      </c>
-      <c r="C30">
-        <v>6.1136576724784997E-3</v>
-      </c>
-      <c r="D30">
-        <v>0.12486733192241201</v>
-      </c>
-      <c r="E30">
-        <v>9.15977798848151</v>
-      </c>
-      <c r="F30" t="s">
-        <v>288</v>
-      </c>
-      <c r="G30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31">
-        <v>0.474368241606684</v>
-      </c>
-      <c r="C31">
-        <v>7.8812512991830608E-3</v>
-      </c>
-      <c r="D31">
-        <v>0.29337280109738401</v>
-      </c>
-      <c r="E31">
-        <v>5.2735775827446396</v>
-      </c>
-      <c r="F31" t="s">
-        <v>290</v>
-      </c>
-      <c r="G31" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32">
-        <v>0.60641919153811497</v>
-      </c>
-      <c r="C32">
-        <v>4.6079902413354397E-3</v>
-      </c>
-      <c r="D32">
-        <v>0.17814331765862401</v>
-      </c>
-      <c r="E32">
-        <v>5.2201240275527301</v>
-      </c>
-      <c r="F32" t="s">
-        <v>292</v>
-      </c>
-      <c r="G32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33">
-        <v>0.59189308158059395</v>
-      </c>
-      <c r="C33">
-        <v>4.4915373974963504E-3</v>
-      </c>
-      <c r="D33">
-        <v>0.17524562811275199</v>
-      </c>
-      <c r="E33">
-        <v>4.6419662294308504</v>
-      </c>
-      <c r="F33" t="s">
-        <v>294</v>
-      </c>
-      <c r="G33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34">
-        <v>0.41378400962199202</v>
-      </c>
-      <c r="C34">
-        <v>1.3590623820186E-2</v>
-      </c>
-      <c r="D34">
-        <v>-0.16379122585191599</v>
-      </c>
-      <c r="E34">
-        <v>18.2252890308201</v>
-      </c>
-      <c r="F34" t="s">
-        <v>296</v>
-      </c>
-      <c r="G34" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35">
-        <v>0.32356399411450698</v>
-      </c>
-      <c r="C35">
-        <v>1.60212305842738E-2</v>
-      </c>
-      <c r="D35">
-        <v>-0.25462885457578399</v>
-      </c>
-      <c r="E35">
-        <v>17.835278916200199</v>
-      </c>
-      <c r="F35" t="s">
-        <v>298</v>
-      </c>
-      <c r="G35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36">
-        <v>0.356240771871633</v>
-      </c>
-      <c r="C36">
-        <v>1.3730494190854E-2</v>
-      </c>
-      <c r="D36">
-        <v>2.1545017748170001E-2</v>
-      </c>
-      <c r="E36">
-        <v>18.214086078582099</v>
-      </c>
-      <c r="F36" t="s">
-        <v>300</v>
-      </c>
-      <c r="G36" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37">
-        <v>8.5795332049205295E-2</v>
-      </c>
-      <c r="C37">
-        <v>9.94007518982634E-3</v>
-      </c>
-      <c r="D37">
-        <v>0.67071798896192902</v>
-      </c>
-      <c r="E37">
-        <v>36.220384609854797</v>
-      </c>
-      <c r="F37" t="s">
-        <v>302</v>
-      </c>
-      <c r="G37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38">
-        <v>0.31695398427034999</v>
-      </c>
-      <c r="C38">
-        <v>1.41771396967286E-2</v>
-      </c>
-      <c r="D38">
-        <v>0.20304931002226401</v>
-      </c>
-      <c r="E38">
-        <v>19.214632888259501</v>
-      </c>
-      <c r="F38" t="s">
-        <v>304</v>
-      </c>
-      <c r="G38" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39">
-        <v>0.54955965522802497</v>
-      </c>
-      <c r="C39">
-        <v>6.3156732601407301E-3</v>
-      </c>
-      <c r="D39">
-        <v>-0.17136095138618801</v>
-      </c>
-      <c r="E39">
-        <v>6.7594582185089296</v>
-      </c>
-      <c r="F39" t="s">
-        <v>306</v>
-      </c>
-      <c r="G39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40">
-        <v>0.47319381320444798</v>
-      </c>
-      <c r="C40">
-        <v>1.74862717491579E-2</v>
-      </c>
-      <c r="D40">
-        <v>-1.2815801106143401</v>
-      </c>
-      <c r="E40">
-        <v>13.0444703517937</v>
-      </c>
-      <c r="F40" t="s">
-        <v>308</v>
-      </c>
-      <c r="G40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41">
-        <v>0.38186978320098403</v>
-      </c>
-      <c r="C41">
-        <v>2.1776377237059202E-2</v>
-      </c>
-      <c r="D41">
-        <v>-0.67006845872921095</v>
-      </c>
-      <c r="E41">
-        <v>36.811671200457702</v>
-      </c>
-      <c r="F41" t="s">
-        <v>310</v>
-      </c>
-      <c r="G41" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42">
-        <v>0.174412295545087</v>
-      </c>
-      <c r="C42">
-        <v>3.5087603566819801E-2</v>
-      </c>
-      <c r="D42">
-        <v>3.1167960720338801</v>
-      </c>
-      <c r="E42">
-        <v>381.97044396732701</v>
-      </c>
-      <c r="F42" t="s">
-        <v>312</v>
-      </c>
-      <c r="G42" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43">
-        <v>0.13657164076162201</v>
-      </c>
-      <c r="C43">
-        <v>3.0165878254070501E-2</v>
-      </c>
-      <c r="D43">
-        <v>3.4638292745573098</v>
-      </c>
-      <c r="E43">
-        <v>240.31742796892701</v>
-      </c>
-      <c r="F43" t="s">
-        <v>314</v>
-      </c>
-      <c r="G43" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44">
-        <v>8.8031359200906101E-2</v>
-      </c>
-      <c r="C44">
-        <v>2.1733411892648401E-2</v>
-      </c>
-      <c r="D44">
-        <v>3.7563756797302101</v>
-      </c>
-      <c r="E44">
-        <v>209.06544650887099</v>
-      </c>
-      <c r="F44" t="s">
-        <v>316</v>
-      </c>
-      <c r="G44" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45">
-        <v>0.12793180020006401</v>
-      </c>
-      <c r="C45">
-        <v>2.8816293699659799E-2</v>
-      </c>
-      <c r="D45">
-        <v>3.5319087501101198</v>
-      </c>
-      <c r="E45">
-        <v>404.41646769875302</v>
-      </c>
-      <c r="F45" t="s">
-        <v>318</v>
-      </c>
-      <c r="G45" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46">
-        <v>8.8863301418674198E-2</v>
-      </c>
-      <c r="C46">
-        <v>2.4098579792000401E-2</v>
-      </c>
-      <c r="D46">
-        <v>3.7938103246282502</v>
-      </c>
-      <c r="E46">
-        <v>547.44541184352397</v>
-      </c>
-      <c r="F46" t="s">
-        <v>320</v>
-      </c>
-      <c r="G46" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47">
-        <v>4.3236206764221102E-2</v>
-      </c>
-      <c r="C47">
-        <v>1.28130506910303E-2</v>
-      </c>
-      <c r="D47">
-        <v>3.5750432175911899</v>
-      </c>
-      <c r="E47">
-        <v>94.222274726097396</v>
-      </c>
-      <c r="F47" t="s">
-        <v>322</v>
-      </c>
-      <c r="G47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48">
-        <v>2.22172416722499E-2</v>
-      </c>
-      <c r="C48">
-        <v>6.8497362012857801E-3</v>
-      </c>
-      <c r="D48">
-        <v>3.4255546248656801</v>
-      </c>
-      <c r="E48">
-        <v>86.245474611804099</v>
-      </c>
-      <c r="F48" t="s">
-        <v>324</v>
-      </c>
-      <c r="G48" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49">
-        <v>1.0390224682799E-2</v>
-      </c>
-      <c r="C49">
-        <v>3.2960831353048199E-3</v>
-      </c>
-      <c r="D49">
-        <v>3.3802399908277398</v>
-      </c>
-      <c r="E49">
-        <v>83.529327506787297</v>
-      </c>
-      <c r="F49" t="s">
-        <v>326</v>
-      </c>
-      <c r="G49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50">
-        <v>0.65455435747700497</v>
-      </c>
-      <c r="C50">
-        <v>1.0145458756082901E-2</v>
-      </c>
-      <c r="D50">
-        <v>-1.3552008989637301</v>
-      </c>
-      <c r="E50">
-        <v>178.31608135260001</v>
-      </c>
-      <c r="F50" t="s">
-        <v>328</v>
-      </c>
-      <c r="G50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51">
-        <v>0.54835039916287298</v>
-      </c>
-      <c r="C51">
-        <v>2.6296653014224899E-2</v>
-      </c>
-      <c r="D51">
-        <v>-2.5060455695670201</v>
-      </c>
-      <c r="E51">
-        <v>66.983184848423903</v>
-      </c>
-      <c r="F51" t="s">
-        <v>330</v>
-      </c>
-      <c r="G51" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52">
-        <v>0.37013661890021399</v>
-      </c>
-      <c r="C52">
-        <v>3.3412785717170899E-2</v>
-      </c>
-      <c r="D52">
-        <v>-0.87637980325712606</v>
-      </c>
-      <c r="E52">
-        <v>275.65546331796702</v>
-      </c>
-      <c r="F52" t="s">
-        <v>332</v>
-      </c>
-      <c r="G52" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53">
-        <v>0.62207398960155902</v>
-      </c>
-      <c r="C53">
-        <v>1.1444477273990001E-2</v>
-      </c>
-      <c r="D53">
-        <v>-1.1959143339195699</v>
-      </c>
-      <c r="E53">
-        <v>166.80317972632901</v>
-      </c>
-      <c r="F53" t="s">
-        <v>334</v>
-      </c>
-      <c r="G53" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54">
-        <v>0.41486051880678498</v>
-      </c>
-      <c r="C54">
-        <v>2.10652423825415E-2</v>
-      </c>
-      <c r="D54">
-        <v>-1.1400356189362499</v>
-      </c>
-      <c r="E54">
-        <v>156.79569387361801</v>
-      </c>
-      <c r="F54" t="s">
-        <v>336</v>
-      </c>
-      <c r="G54" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55">
-        <v>0.19960966820420101</v>
-      </c>
-      <c r="C55">
-        <v>2.6612083005834002E-2</v>
-      </c>
-      <c r="D55">
-        <v>-1.85639941127359</v>
-      </c>
-      <c r="E55">
-        <v>48.135175878156197</v>
-      </c>
-      <c r="F55" t="s">
-        <v>338</v>
-      </c>
-      <c r="G55" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56">
-        <v>0.191865940696162</v>
-      </c>
-      <c r="C56">
-        <v>2.57941970465323E-2</v>
-      </c>
-      <c r="D56">
-        <v>-1.83027689862001</v>
-      </c>
-      <c r="E56">
-        <v>49.959999070833597</v>
-      </c>
-      <c r="F56" t="s">
-        <v>340</v>
-      </c>
-      <c r="G56" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57">
-        <v>0.17535562011238401</v>
-      </c>
-      <c r="C57">
-        <v>2.37213811088084E-2</v>
-      </c>
-      <c r="D57">
-        <v>-1.7217671599103099</v>
-      </c>
-      <c r="E57">
-        <v>40.505303783229202</v>
-      </c>
-      <c r="F57" t="s">
-        <v>342</v>
-      </c>
-      <c r="G57" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58">
-        <v>0.31416912560367699</v>
-      </c>
-      <c r="C58">
-        <v>1.8497307291663798E-2</v>
-      </c>
-      <c r="D58">
-        <v>-1.2299516652507601</v>
-      </c>
-      <c r="E58">
-        <v>314.09476095333599</v>
-      </c>
-      <c r="F58" t="s">
-        <v>344</v>
-      </c>
-      <c r="G58" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59">
-        <v>0.182365833216554</v>
-      </c>
-      <c r="C59">
-        <v>1.1801212266202E-2</v>
-      </c>
-      <c r="D59">
-        <v>-5.4426373646321802E-2</v>
-      </c>
-      <c r="E59">
-        <v>88.157373701174194</v>
-      </c>
-      <c r="F59" t="s">
-        <v>346</v>
-      </c>
-      <c r="G59" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60">
-        <v>0.13628240920203899</v>
-      </c>
-      <c r="C60">
-        <v>9.2547754291615394E-3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>348</v>
-      </c>
-      <c r="E60">
-        <v>10.0000008830228</v>
-      </c>
-      <c r="F60" t="s">
-        <v>349</v>
-      </c>
-      <c r="G60" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61">
-        <v>9.9884039687758094E-2</v>
-      </c>
-      <c r="C61">
-        <v>9.1842577274113702E-3</v>
-      </c>
-      <c r="D61">
-        <v>0.64091365930439304</v>
-      </c>
-      <c r="E61">
-        <v>145.41355448313001</v>
-      </c>
-      <c r="F61" t="s">
-        <v>351</v>
-      </c>
-      <c r="G61" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62">
-        <v>8.7160254730228801E-2</v>
-      </c>
-      <c r="C62">
-        <v>7.3078880770890402E-3</v>
-      </c>
-      <c r="D62">
-        <v>0.195382963038186</v>
-      </c>
-      <c r="E62">
-        <v>50.334768151008603</v>
-      </c>
-      <c r="F62" t="s">
-        <v>353</v>
-      </c>
-      <c r="G62" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63">
-        <v>7.28694403281335E-2</v>
-      </c>
-      <c r="C63">
-        <v>6.3601364919986698E-3</v>
-      </c>
-      <c r="D63">
-        <v>0.22900602527949401</v>
-      </c>
-      <c r="E63">
-        <v>40.768402087491097</v>
-      </c>
-      <c r="F63" t="s">
-        <v>355</v>
-      </c>
-      <c r="G63" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64">
-        <v>5.3270860010353999E-2</v>
-      </c>
-      <c r="C64">
-        <v>6.5598127294156702E-3</v>
-      </c>
-      <c r="D64">
-        <v>1.1011658641348001</v>
-      </c>
-      <c r="E64">
-        <v>200.59552144315199</v>
-      </c>
-      <c r="F64" t="s">
-        <v>357</v>
-      </c>
-      <c r="G64" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65">
-        <v>3.8868252115111197E-2</v>
-      </c>
-      <c r="C65">
-        <v>5.1762200173820798E-3</v>
-      </c>
-      <c r="D65">
-        <v>1.2073746703127599</v>
-      </c>
-      <c r="E65">
-        <v>108.063295614509</v>
-      </c>
-      <c r="F65" t="s">
-        <v>359</v>
-      </c>
-      <c r="G65" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66">
-        <v>0.12726480039252899</v>
-      </c>
-      <c r="C66">
-        <v>1.08281500679179E-2</v>
-      </c>
-      <c r="D66">
-        <v>0.58384788284565003</v>
-      </c>
-      <c r="E66">
-        <v>209.99805733545301</v>
-      </c>
-      <c r="F66" t="s">
-        <v>361</v>
-      </c>
-      <c r="G66" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67">
-        <v>3.6259180489394999E-2</v>
-      </c>
-      <c r="C67">
-        <v>6.0797901773042796E-3</v>
-      </c>
-      <c r="D67">
-        <v>1.52487180817649</v>
-      </c>
-      <c r="E67">
-        <v>104.387930283732</v>
-      </c>
-      <c r="F67" t="s">
-        <v>363</v>
-      </c>
-      <c r="G67" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68">
-        <v>0.23583189541296401</v>
-      </c>
-      <c r="C68">
-        <v>1.5842770012419301E-2</v>
-      </c>
-      <c r="D68">
-        <v>-1.22280477837033</v>
-      </c>
-      <c r="E68">
-        <v>135.24826637140799</v>
-      </c>
-      <c r="F68" t="s">
-        <v>365</v>
-      </c>
-      <c r="G68" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69">
-        <v>0.210109929118795</v>
-      </c>
-      <c r="C69">
-        <v>1.4735479010838401E-2</v>
-      </c>
-      <c r="D69">
-        <v>-1.2480569266669801</v>
-      </c>
-      <c r="E69">
-        <v>109.523554579782</v>
-      </c>
-      <c r="F69" t="s">
-        <v>367</v>
-      </c>
-      <c r="G69" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70">
-        <v>0.12240393034367</v>
-      </c>
-      <c r="C70">
-        <v>1.16931845100549E-2</v>
-      </c>
-      <c r="D70">
-        <v>-4.8591125579993903</v>
-      </c>
-      <c r="E70">
-        <v>295.44911252750501</v>
-      </c>
-      <c r="F70" t="s">
-        <v>369</v>
-      </c>
-      <c r="G70" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71">
-        <v>0.100514964413519</v>
-      </c>
-      <c r="C71">
-        <v>1.0011543832585301E-2</v>
-      </c>
-      <c r="D71">
-        <v>-7.6025637331958498</v>
-      </c>
-      <c r="E71">
-        <v>93.225858885194697</v>
-      </c>
-      <c r="F71" t="s">
-        <v>371</v>
-      </c>
-      <c r="G71" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72">
-        <v>3.8755875948495E-2</v>
-      </c>
-      <c r="C72">
-        <v>3.40810575337339E-3</v>
-      </c>
-      <c r="D72">
-        <v>-0.33737508686849099</v>
-      </c>
-      <c r="E72">
-        <v>47.275823068948199</v>
-      </c>
-      <c r="F72" t="s">
-        <v>373</v>
-      </c>
-      <c r="G72" t="s">
-        <v>374</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>